--- a/PythonResources/Data/Consumption/Sympheny/base_CB_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CB_hea.xlsx
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>700.4397824006153</v>
+        <v>700.4397824006152</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>866.5875277171936</v>
+        <v>866.5875277171934</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -679,7 +679,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>964.5331290432814</v>
+        <v>964.5331290432813</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1070.429073584863</v>
+        <v>1070.429073584862</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>716.3682226589633</v>
+        <v>716.3682226589632</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>833.484860829356</v>
+        <v>833.4848608293559</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>827.0013674694665</v>
+        <v>827.0013674694663</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>922.1484920615849</v>
+        <v>922.1484920615848</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>1746.322984213436</v>
+        <v>1746.322984213435</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>1368.641750548483</v>
+        <v>1368.641750548482</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>896.7973783037166</v>
+        <v>896.7973783037165</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>899.7280886903301</v>
+        <v>899.72808869033</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>926.1044821698512</v>
+        <v>926.1044821698511</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>1342.265357068962</v>
+        <v>1342.265357068961</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>971.9492916766068</v>
+        <v>971.9492916766065</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>821.7292832478837</v>
+        <v>821.7292832478836</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>879.9630847719703</v>
+        <v>879.9630847719702</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>908.0120346691317</v>
+        <v>908.0120346691316</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>2026.805449480122</v>
+        <v>2026.805449480121</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>1992.747664077287</v>
+        <v>1992.747664077286</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>2022.133017910744</v>
+        <v>2022.133017910743</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>2022.466239681702</v>
+        <v>2022.466239681701</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>830.3486197233293</v>
+        <v>830.3486197233292</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>481.8615403462108</v>
+        <v>481.8615403462107</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>649.2769644405187</v>
+        <v>649.2769644405186</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>736.6455147529031</v>
+        <v>736.645514752903</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>711.2793664507516</v>
+        <v>711.2793664507515</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>645.4043530427515</v>
+        <v>645.4043530427514</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>645.0000615449181</v>
+        <v>645.000061544918</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>731.699940975493</v>
+        <v>731.6999409754928</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>929.0351925564646</v>
+        <v>929.0351925564644</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>841.113880958061</v>
+        <v>841.1138809580609</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>929.0351925564646</v>
+        <v>929.0351925564644</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>1277.789728563466</v>
+        <v>1277.789728563465</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>364</v>
       </c>
       <c r="B364">
-        <v>2108.118888369828</v>
+        <v>2108.118888369827</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>2014.415285178636</v>
+        <v>2014.415285178635</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>2141.749962340372</v>
+        <v>2141.749962340371</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>2088.225812407573</v>
+        <v>2088.225812407572</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>1963.575959031014</v>
+        <v>1963.575959031013</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>469</v>
       </c>
       <c r="B469">
-        <v>1963.575959031014</v>
+        <v>1963.575959031013</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>1957.714538257787</v>
+        <v>1957.714538257786</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>2016.328745990056</v>
+        <v>2016.328745990055</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>2016.328745990056</v>
+        <v>2016.328745990055</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>506</v>
       </c>
       <c r="B506">
-        <v>2270.247545383516</v>
+        <v>2270.247545383515</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>587</v>
       </c>
       <c r="B587">
-        <v>2017.608880286929</v>
+        <v>2017.608880286928</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>2002.933054954923</v>
+        <v>2002.933054954922</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>1974.003719657623</v>
+        <v>1974.003719657622</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>2006.177058281866</v>
+        <v>2006.177058281865</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>2006.726566479356</v>
+        <v>2006.726566479355</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>2009.045930679322</v>
+        <v>2009.045930679321</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>2023.845431989642</v>
+        <v>2023.845431989641</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>1993.575589761505</v>
+        <v>1993.575589761504</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>2017.196822406571</v>
+        <v>2017.19682240657</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>2077.049548348223</v>
+        <v>2077.049548348222</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>2003.445636201542</v>
+        <v>2003.445636201541</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>2003.195646605564</v>
+        <v>2003.195646605563</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>2012.403352498226</v>
+        <v>2012.403352498225</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>783</v>
       </c>
       <c r="B783">
-        <v>1999.099099627156</v>
+        <v>1999.099099627155</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>2009.171951225946</v>
+        <v>2009.171951225945</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>871</v>
       </c>
       <c r="B871">
-        <v>2196.883658417499</v>
+        <v>2196.883658417498</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>902</v>
       </c>
       <c r="B902">
-        <v>1968.776211541021</v>
+        <v>1968.77621154102</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>1977.099429039003</v>
+        <v>1977.099429039002</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>1984.951974448895</v>
+        <v>1984.951974448894</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>1328.362653136945</v>
+        <v>1328.362653136944</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>841.113880958061</v>
+        <v>841.1138809580609</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>808.8760667053131</v>
+        <v>808.876066705313</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>814.7374874785399</v>
+        <v>814.7374874785398</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>811.8067770919265</v>
+        <v>811.8067770919264</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>985</v>
       </c>
       <c r="B985">
-        <v>808.8760667053131</v>
+        <v>808.876066705313</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>811.8067770919265</v>
+        <v>811.8067770919264</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>782.499673225792</v>
+        <v>782.4996732257919</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>990</v>
       </c>
       <c r="B990">
-        <v>756.1232797462709</v>
+        <v>756.1232797462708</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>996</v>
       </c>
       <c r="B996">
-        <v>641.8255746683462</v>
+        <v>641.8255746683461</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>2051.223249208269</v>
+        <v>2051.223249208268</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>1999.775507584386</v>
+        <v>1999.775507584385</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>1046</v>
       </c>
       <c r="B1046">
-        <v>1964.428238918545</v>
+        <v>1964.428238918544</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>1057</v>
       </c>
       <c r="B1057">
-        <v>2019.784932748989</v>
+        <v>2019.784932748988</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>1059</v>
       </c>
       <c r="B1059">
-        <v>2021.056274914702</v>
+        <v>2021.056274914701</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>1608.079909921686</v>
+        <v>1608.079909921685</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>1954.785293226367</v>
+        <v>1954.785293226366</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>2006.707223790804</v>
+        <v>2006.707223790803</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>1109</v>
       </c>
       <c r="B1109">
-        <v>2017.675407412705</v>
+        <v>2017.675407412704</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>2000.148587016602</v>
+        <v>2000.148587016601</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>1118</v>
       </c>
       <c r="B1118">
-        <v>2009.001383881445</v>
+        <v>2009.001383881444</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>1153</v>
       </c>
       <c r="B1153">
-        <v>2016.328745990056</v>
+        <v>2016.328745990055</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>1957.714538257787</v>
+        <v>1957.714538257786</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>1931.338144778266</v>
+        <v>1931.338144778265</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9695,7 +9695,7 @@
         <v>1169</v>
       </c>
       <c r="B1169">
-        <v>1931.338144778266</v>
+        <v>1931.338144778265</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -9703,7 +9703,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>1943.06098632472</v>
+        <v>1943.060986324719</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9767,7 +9767,7 @@
         <v>1178</v>
       </c>
       <c r="B1178">
-        <v>2016.328745990056</v>
+        <v>2016.328745990055</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>748.7745234518377</v>
+        <v>748.7745234518376</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>593.0324705126575</v>
+        <v>593.0324705126574</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>592.6145512115264</v>
+        <v>592.6145512115263</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10103,7 +10103,7 @@
         <v>1220</v>
       </c>
       <c r="B1220">
-        <v>595.3515416415847</v>
+        <v>595.3515416415846</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>522.9145504495417</v>
+        <v>522.9145504495416</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10223,7 +10223,7 @@
         <v>1235</v>
       </c>
       <c r="B1235">
-        <v>442.5467052660763</v>
+        <v>442.5467052660762</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10255,7 +10255,7 @@
         <v>1239</v>
       </c>
       <c r="B1239">
-        <v>294.0802932586042</v>
+        <v>294.0802932586041</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10567,7 +10567,7 @@
         <v>1278</v>
       </c>
       <c r="B1278">
-        <v>631.5180903960036</v>
+        <v>631.5180903960035</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10575,7 +10575,7 @@
         <v>1279</v>
       </c>
       <c r="B1279">
-        <v>599.3945152341257</v>
+        <v>599.3945152341256</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>485.5910158486957</v>
+        <v>485.5910158486956</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10671,7 +10671,7 @@
         <v>1291</v>
       </c>
       <c r="B1291">
-        <v>478.8213679266573</v>
+        <v>478.8213679266572</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -10687,7 +10687,7 @@
         <v>1293</v>
       </c>
       <c r="B1293">
-        <v>527.171788278448</v>
+        <v>527.1717882784479</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>1301</v>
       </c>
       <c r="B1301">
-        <v>756.1232797462709</v>
+        <v>756.1232797462708</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10911,7 +10911,7 @@
         <v>1321</v>
       </c>
       <c r="B1321">
-        <v>753.1925693596575</v>
+        <v>753.1925693596573</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>1322</v>
       </c>
       <c r="B1322">
-        <v>782.499673225792</v>
+        <v>782.4996732257919</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -10959,7 +10959,7 @@
         <v>1327</v>
       </c>
       <c r="B1327">
-        <v>841.113880958061</v>
+        <v>841.1138809580609</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11071,7 +11071,7 @@
         <v>1341</v>
       </c>
       <c r="B1341">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11111,7 +11111,7 @@
         <v>1346</v>
       </c>
       <c r="B1346">
-        <v>620.9038193603901</v>
+        <v>620.90381936039</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>441.6011994811471</v>
+        <v>441.601199481147</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>381.7501147373117</v>
+        <v>381.7501147373116</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>550.655511992174</v>
+        <v>550.6555119921738</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>749.1465771354183</v>
+        <v>749.1465771354182</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11359,7 +11359,7 @@
         <v>1377</v>
       </c>
       <c r="B1377">
-        <v>539.0428358491529</v>
+        <v>539.0428358491528</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>485.9408547475458</v>
+        <v>485.9408547475456</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>319.7178734062065</v>
+        <v>319.7178734062064</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>365.7988852749974</v>
+        <v>365.7988852749973</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11647,7 +11647,7 @@
         <v>1413</v>
       </c>
       <c r="B1413">
-        <v>820.9111461363567</v>
+        <v>820.9111461363566</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
@@ -11727,7 +11727,7 @@
         <v>1423</v>
       </c>
       <c r="B1423">
-        <v>2008.810301564238</v>
+        <v>2008.810301564237</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
@@ -11775,7 +11775,7 @@
         <v>1429</v>
       </c>
       <c r="B1429">
-        <v>1682.303843157759</v>
+        <v>1682.303843157758</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
@@ -11991,7 +11991,7 @@
         <v>1456</v>
       </c>
       <c r="B1456">
-        <v>1842.030607166994</v>
+        <v>1842.030607166993</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>2017.42248710634</v>
+        <v>2017.422487106339</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12127,7 +12127,7 @@
         <v>1473</v>
       </c>
       <c r="B1473">
-        <v>2016.328745990056</v>
+        <v>2016.328745990055</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12431,7 +12431,7 @@
         <v>1511</v>
       </c>
       <c r="B1511">
-        <v>1957.714538257787</v>
+        <v>1957.714538257786</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
@@ -12455,7 +12455,7 @@
         <v>1514</v>
       </c>
       <c r="B1514">
-        <v>2115.370345079426</v>
+        <v>2115.370345079425</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -12479,7 +12479,7 @@
         <v>1517</v>
       </c>
       <c r="B1517">
-        <v>2052.993691352822</v>
+        <v>2052.993691352821</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>480.1435872246818</v>
+        <v>480.1435872246817</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12807,7 +12807,7 @@
         <v>1558</v>
       </c>
       <c r="B1558">
-        <v>834.7079048878975</v>
+        <v>834.7079048878974</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12823,7 +12823,7 @@
         <v>1560</v>
       </c>
       <c r="B1560">
-        <v>1233.132442905366</v>
+        <v>1233.132442905365</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -13023,7 +13023,7 @@
         <v>1585</v>
       </c>
       <c r="B1585">
-        <v>508.2726305059989</v>
+        <v>508.2726305059988</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13103,7 +13103,7 @@
         <v>1595</v>
       </c>
       <c r="B1595">
-        <v>1963.451110768544</v>
+        <v>1963.451110768543</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>1987.68749952376</v>
+        <v>1987.687499523759</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>1999.267322403347</v>
+        <v>1999.267322403346</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13319,7 +13319,7 @@
         <v>1622</v>
       </c>
       <c r="B1622">
-        <v>1966.17769717673</v>
+        <v>1966.177697176729</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -13727,7 +13727,7 @@
         <v>1673</v>
       </c>
       <c r="B1673">
-        <v>926.1044821698512</v>
+        <v>926.1044821698511</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>1342.265357068962</v>
+        <v>1342.265357068961</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>2052.187452925465</v>
+        <v>2052.187452925464</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>2044.813199450668</v>
+        <v>2044.813199450667</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>2035.732686388785</v>
+        <v>2035.732686388784</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>541.4833556165014</v>
+        <v>541.4833556165013</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>739.0715275038378</v>
+        <v>739.0715275038377</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>767.0666988654049</v>
+        <v>767.0666988654048</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14263,7 +14263,7 @@
         <v>1740</v>
       </c>
       <c r="B1740">
-        <v>999.2553064907617</v>
+        <v>999.2553064907614</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14311,7 +14311,7 @@
         <v>1746</v>
       </c>
       <c r="B1746">
-        <v>938.2440414261775</v>
+        <v>938.2440414261774</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
@@ -14359,7 +14359,7 @@
         <v>1752</v>
       </c>
       <c r="B1752">
-        <v>1953.272460524797</v>
+        <v>1953.272460524796</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>762.6288706624755</v>
+        <v>762.6288706624754</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14511,7 +14511,7 @@
         <v>1771</v>
       </c>
       <c r="B1771">
-        <v>914.2035999674106</v>
+        <v>914.2035999674105</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
@@ -14919,7 +14919,7 @@
         <v>1822</v>
       </c>
       <c r="B1822">
-        <v>1943.06098632472</v>
+        <v>1943.060986324719</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>547.4882932773608</v>
+        <v>547.4882932773606</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>867.7194559898153</v>
+        <v>867.7194559898152</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15511,7 +15511,7 @@
         <v>1896</v>
       </c>
       <c r="B1896">
-        <v>1063.594363892242</v>
+        <v>1063.594363892241</v>
       </c>
     </row>
     <row r="1897" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>740.5572804414354</v>
+        <v>740.5572804414353</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>647.3761056837612</v>
+        <v>647.3761056837611</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15663,7 +15663,7 @@
         <v>1915</v>
       </c>
       <c r="B1915">
-        <v>768.2490646637802</v>
+        <v>768.2490646637801</v>
       </c>
     </row>
     <row r="1916" spans="1:2">
@@ -15799,7 +15799,7 @@
         <v>1932</v>
       </c>
       <c r="B1932">
-        <v>508.3763219701877</v>
+        <v>508.3763219701876</v>
       </c>
     </row>
     <row r="1933" spans="1:2">
@@ -15975,7 +15975,7 @@
         <v>1954</v>
       </c>
       <c r="B1954">
-        <v>888.7055110836537</v>
+        <v>888.7055110836536</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>864.6226915526963</v>
+        <v>864.6226915526962</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>955.3062269975869</v>
+        <v>955.3062269975868</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16119,7 +16119,7 @@
         <v>1972</v>
       </c>
       <c r="B1972">
-        <v>1878.585357819224</v>
+        <v>1878.585357819223</v>
       </c>
     </row>
     <row r="1973" spans="1:2">
@@ -16167,7 +16167,7 @@
         <v>1978</v>
       </c>
       <c r="B1978">
-        <v>1277.789728563466</v>
+        <v>1277.789728563465</v>
       </c>
     </row>
     <row r="1979" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1993</v>
       </c>
       <c r="B1993">
-        <v>1342.265357068962</v>
+        <v>1342.265357068961</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16567,7 +16567,7 @@
         <v>2028</v>
       </c>
       <c r="B2028">
-        <v>851.4783382403195</v>
+        <v>851.4783382403194</v>
       </c>
     </row>
     <row r="2029" spans="1:2">
@@ -16583,7 +16583,7 @@
         <v>2030</v>
       </c>
       <c r="B2030">
-        <v>816.6779108255167</v>
+        <v>816.6779108255166</v>
       </c>
     </row>
     <row r="2031" spans="1:2">
@@ -16599,7 +16599,7 @@
         <v>2032</v>
       </c>
       <c r="B2032">
-        <v>702.2146206107484</v>
+        <v>702.2146206107483</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16607,7 +16607,7 @@
         <v>2033</v>
       </c>
       <c r="B2033">
-        <v>787.7582468724925</v>
+        <v>787.7582468724924</v>
       </c>
     </row>
     <row r="2034" spans="1:2">
@@ -16631,7 +16631,7 @@
         <v>2036</v>
       </c>
       <c r="B2036">
-        <v>850.9294161849068</v>
+        <v>850.9294161849067</v>
       </c>
     </row>
     <row r="2037" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>805.4731016470007</v>
+        <v>805.4731016470006</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16799,7 +16799,7 @@
         <v>2057</v>
       </c>
       <c r="B2057">
-        <v>810.7920186205616</v>
+        <v>810.7920186205615</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
@@ -16823,7 +16823,7 @@
         <v>2060</v>
       </c>
       <c r="B2060">
-        <v>904.6842130251321</v>
+        <v>904.684213025132</v>
       </c>
     </row>
     <row r="2061" spans="1:2">
@@ -16831,7 +16831,7 @@
         <v>2061</v>
       </c>
       <c r="B2061">
-        <v>932.0593926044111</v>
+        <v>932.059392604411</v>
       </c>
     </row>
     <row r="2062" spans="1:2">
@@ -16919,7 +16919,7 @@
         <v>2072</v>
       </c>
       <c r="B2072">
-        <v>915.5179356544951</v>
+        <v>915.517935654495</v>
       </c>
     </row>
     <row r="2073" spans="1:2">
@@ -16983,7 +16983,7 @@
         <v>2080</v>
       </c>
       <c r="B2080">
-        <v>504.9128084352879</v>
+        <v>504.9128084352878</v>
       </c>
     </row>
     <row r="2081" spans="1:2">
@@ -17039,7 +17039,7 @@
         <v>2087</v>
       </c>
       <c r="B2087">
-        <v>782.3645674769691</v>
+        <v>782.364567476969</v>
       </c>
     </row>
     <row r="2088" spans="1:2">
@@ -17079,7 +17079,7 @@
         <v>2092</v>
       </c>
       <c r="B2092">
-        <v>836.3047024420439</v>
+        <v>836.3047024420437</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -17215,7 +17215,7 @@
         <v>2109</v>
       </c>
       <c r="B2109">
-        <v>491.2721393189382</v>
+        <v>491.2721393189381</v>
       </c>
     </row>
     <row r="2110" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>885.8972750840968</v>
+        <v>885.8972750840967</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>898.9694743067552</v>
+        <v>898.969474306755</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17335,7 +17335,7 @@
         <v>2124</v>
       </c>
       <c r="B2124">
-        <v>364.3411557901166</v>
+        <v>364.3411557901165</v>
       </c>
     </row>
     <row r="2125" spans="1:2">
@@ -17391,7 +17391,7 @@
         <v>2131</v>
       </c>
       <c r="B2131">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2132" spans="1:2">
@@ -17431,7 +17431,7 @@
         <v>2136</v>
       </c>
       <c r="B2136">
-        <v>952.4808756493724</v>
+        <v>952.480875649372</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -17519,7 +17519,7 @@
         <v>2147</v>
       </c>
       <c r="B2147">
-        <v>838.1831705714476</v>
+        <v>838.1831705714475</v>
       </c>
     </row>
     <row r="2148" spans="1:2">
@@ -17527,7 +17527,7 @@
         <v>2148</v>
       </c>
       <c r="B2148">
-        <v>756.1232797462709</v>
+        <v>756.1232797462708</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>726.8161758801364</v>
+        <v>726.8161758801363</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17903,7 +17903,7 @@
         <v>2195</v>
       </c>
       <c r="B2195">
-        <v>386.8172836886625</v>
+        <v>386.8172836886624</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
@@ -17991,7 +17991,7 @@
         <v>2206</v>
       </c>
       <c r="B2206">
-        <v>438.4496893740063</v>
+        <v>438.4496893740061</v>
       </c>
     </row>
     <row r="2207" spans="1:2">
@@ -18031,7 +18031,7 @@
         <v>2211</v>
       </c>
       <c r="B2211">
-        <v>779.6185797660239</v>
+        <v>779.6185797660238</v>
       </c>
     </row>
     <row r="2212" spans="1:2">
@@ -18183,7 +18183,7 @@
         <v>2230</v>
       </c>
       <c r="B2230">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="2231" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>557.5000161189072</v>
+        <v>557.5000161189071</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>766.1935523199211</v>
+        <v>766.193552319921</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18383,7 +18383,7 @@
         <v>2255</v>
       </c>
       <c r="B2255">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="2256" spans="1:2">
@@ -18431,7 +18431,7 @@
         <v>2261</v>
       </c>
       <c r="B2261">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="2262" spans="1:2">
@@ -18503,7 +18503,7 @@
         <v>2270</v>
       </c>
       <c r="B2270">
-        <v>208.0212370997456</v>
+        <v>208.0212370997455</v>
       </c>
     </row>
     <row r="2271" spans="1:2">
@@ -18631,7 +18631,7 @@
         <v>2286</v>
       </c>
       <c r="B2286">
-        <v>562.2683053636104</v>
+        <v>562.2683053636102</v>
       </c>
     </row>
     <row r="2287" spans="1:2">
@@ -18695,7 +18695,7 @@
         <v>2294</v>
       </c>
       <c r="B2294">
-        <v>255.5418268055668</v>
+        <v>255.5418268055667</v>
       </c>
     </row>
     <row r="2295" spans="1:2">
@@ -18775,7 +18775,7 @@
         <v>2304</v>
       </c>
       <c r="B2304">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="2305" spans="1:2">
@@ -18871,7 +18871,7 @@
         <v>2316</v>
       </c>
       <c r="B2316">
-        <v>280.2491807199115</v>
+        <v>280.2491807199114</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -18959,7 +18959,7 @@
         <v>2327</v>
       </c>
       <c r="B2327">
-        <v>612.5184708022117</v>
+        <v>612.5184708022116</v>
       </c>
     </row>
     <row r="2328" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>809.0079779798145</v>
+        <v>809.0079779798144</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19263,7 +19263,7 @@
         <v>2365</v>
       </c>
       <c r="B2365">
-        <v>937.9332102825733</v>
+        <v>937.9332102825732</v>
       </c>
     </row>
     <row r="2366" spans="1:2">
@@ -19271,7 +19271,7 @@
         <v>2366</v>
       </c>
       <c r="B2366">
-        <v>790.2098740322062</v>
+        <v>790.2098740322061</v>
       </c>
     </row>
     <row r="2367" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>1975.984879878974</v>
+        <v>1975.984879878973</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19623,7 +19623,7 @@
         <v>2410</v>
       </c>
       <c r="B2410">
-        <v>915.010717607884</v>
+        <v>915.0107176078839</v>
       </c>
     </row>
     <row r="2411" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>593.6842898097442</v>
+        <v>593.6842898097441</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19687,7 +19687,7 @@
         <v>2418</v>
       </c>
       <c r="B2418">
-        <v>319.7166908645655</v>
+        <v>319.7166908645654</v>
       </c>
     </row>
     <row r="2419" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>1688.74361031868</v>
+        <v>1688.743610318679</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -19791,7 +19791,7 @@
         <v>2431</v>
       </c>
       <c r="B2431">
-        <v>682.1197652383753</v>
+        <v>682.1197652383752</v>
       </c>
     </row>
     <row r="2432" spans="1:2">
@@ -19847,7 +19847,7 @@
         <v>2438</v>
       </c>
       <c r="B2438">
-        <v>282.8774417946264</v>
+        <v>282.8774417946263</v>
       </c>
     </row>
     <row r="2439" spans="1:2">
@@ -19927,7 +19927,7 @@
         <v>2448</v>
       </c>
       <c r="B2448">
-        <v>507.2321140210461</v>
+        <v>507.232114021046</v>
       </c>
     </row>
     <row r="2449" spans="1:2">
@@ -19935,7 +19935,7 @@
         <v>2449</v>
       </c>
       <c r="B2449">
-        <v>532.1621433105657</v>
+        <v>532.1621433105656</v>
       </c>
     </row>
     <row r="2450" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>274.5580342201468</v>
+        <v>274.5580342201467</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>198.1702402772218</v>
+        <v>198.1702402772217</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20103,7 +20103,7 @@
         <v>2470</v>
       </c>
       <c r="B2470">
-        <v>784.2674982459699</v>
+        <v>784.2674982459698</v>
       </c>
     </row>
     <row r="2471" spans="1:2">
@@ -20199,7 +20199,7 @@
         <v>2482</v>
       </c>
       <c r="B2482">
-        <v>668.2019681478673</v>
+        <v>668.2019681478672</v>
       </c>
     </row>
     <row r="2483" spans="1:2">
@@ -20239,7 +20239,7 @@
         <v>2487</v>
       </c>
       <c r="B2487">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2488" spans="1:2">
@@ -20399,7 +20399,7 @@
         <v>2507</v>
       </c>
       <c r="B2507">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="2508" spans="1:2">
@@ -20423,7 +20423,7 @@
         <v>2510</v>
       </c>
       <c r="B2510">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2511" spans="1:2">
@@ -20455,7 +20455,7 @@
         <v>2514</v>
       </c>
       <c r="B2514">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="2515" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>723.8854654935229</v>
+        <v>723.8854654935228</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20479,7 +20479,7 @@
         <v>2517</v>
       </c>
       <c r="B2517">
-        <v>899.7280886903301</v>
+        <v>899.72808869033</v>
       </c>
     </row>
     <row r="2518" spans="1:2">
@@ -20575,7 +20575,7 @@
         <v>2529</v>
       </c>
       <c r="B2529">
-        <v>487.0151066397589</v>
+        <v>487.0151066397588</v>
       </c>
     </row>
     <row r="2530" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>258.1169781327976</v>
+        <v>258.1169781327975</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>736.757204125737</v>
+        <v>736.7572041257368</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>686.3168648901483</v>
+        <v>686.3168648901482</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>565.8752185577272</v>
+        <v>565.8752185577271</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>560.143012805446</v>
+        <v>560.1430128054459</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20847,7 +20847,7 @@
         <v>2563</v>
       </c>
       <c r="B2563">
-        <v>749.0189740051851</v>
+        <v>749.018974005185</v>
       </c>
     </row>
     <row r="2564" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>826.9846331131589</v>
+        <v>826.9846331131588</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -20991,7 +20991,7 @@
         <v>2581</v>
       </c>
       <c r="B2581">
-        <v>822.26208639617</v>
+        <v>822.2620863961699</v>
       </c>
     </row>
     <row r="2582" spans="1:2">
@@ -21031,7 +21031,7 @@
         <v>2586</v>
       </c>
       <c r="B2586">
-        <v>426.5676223322477</v>
+        <v>426.5676223322475</v>
       </c>
     </row>
     <row r="2587" spans="1:2">
@@ -21071,7 +21071,7 @@
         <v>2591</v>
       </c>
       <c r="B2591">
-        <v>929.5240350489518</v>
+        <v>929.5240350489516</v>
       </c>
     </row>
     <row r="2592" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>1204.152992460455</v>
+        <v>1204.152992460454</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21215,7 +21215,7 @@
         <v>2609</v>
       </c>
       <c r="B2609">
-        <v>250.0487963279372</v>
+        <v>250.0487963279371</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -21271,7 +21271,7 @@
         <v>2616</v>
       </c>
       <c r="B2616">
-        <v>655.5445816733302</v>
+        <v>655.5445816733301</v>
       </c>
     </row>
     <row r="2617" spans="1:2">
@@ -21279,7 +21279,7 @@
         <v>2617</v>
       </c>
       <c r="B2617">
-        <v>860.1252233933993</v>
+        <v>860.1252233933992</v>
       </c>
     </row>
     <row r="2618" spans="1:2">
@@ -21327,7 +21327,7 @@
         <v>2623</v>
       </c>
       <c r="B2623">
-        <v>857.0673787902145</v>
+        <v>857.0673787902144</v>
       </c>
     </row>
     <row r="2624" spans="1:2">
@@ -21335,7 +21335,7 @@
         <v>2624</v>
       </c>
       <c r="B2624">
-        <v>562.0834068453189</v>
+        <v>562.0834068453188</v>
       </c>
     </row>
     <row r="2625" spans="1:2">
@@ -21591,7 +21591,7 @@
         <v>2656</v>
       </c>
       <c r="B2656">
-        <v>870.4209848241956</v>
+        <v>870.4209848241954</v>
       </c>
     </row>
     <row r="2657" spans="1:2">
@@ -21631,7 +21631,7 @@
         <v>2661</v>
       </c>
       <c r="B2661">
-        <v>984.7186899021202</v>
+        <v>984.71868990212</v>
       </c>
     </row>
     <row r="2662" spans="1:2">
@@ -21727,7 +21727,7 @@
         <v>2673</v>
       </c>
       <c r="B2673">
-        <v>811.8067770919265</v>
+        <v>811.8067770919264</v>
       </c>
     </row>
     <row r="2674" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21863,7 +21863,7 @@
         <v>2690</v>
       </c>
       <c r="B2690">
-        <v>980.7085988801171</v>
+        <v>980.7085988801168</v>
       </c>
     </row>
     <row r="2691" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>976.3459433986043</v>
+        <v>976.345943398604</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>937.7663649402634</v>
+        <v>937.7663649402633</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -21999,7 +21999,7 @@
         <v>2707</v>
       </c>
       <c r="B2707">
-        <v>932.3231565392063</v>
+        <v>932.3231565392061</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -22007,7 +22007,7 @@
         <v>2708</v>
       </c>
       <c r="B2708">
-        <v>964.096453195676</v>
+        <v>964.0964531956757</v>
       </c>
     </row>
     <row r="2709" spans="1:2">
@@ -22103,7 +22103,7 @@
         <v>2720</v>
       </c>
       <c r="B2720">
-        <v>657.1775735007512</v>
+        <v>657.1775735007511</v>
       </c>
     </row>
     <row r="2721" spans="1:2">
@@ -22207,7 +22207,7 @@
         <v>2733</v>
       </c>
       <c r="B2733">
-        <v>489.9781134548329</v>
+        <v>489.9781134548327</v>
       </c>
     </row>
     <row r="2734" spans="1:2">
@@ -22247,7 +22247,7 @@
         <v>2738</v>
       </c>
       <c r="B2738">
-        <v>663.8800788478324</v>
+        <v>663.8800788478322</v>
       </c>
     </row>
     <row r="2739" spans="1:2">
@@ -22431,7 +22431,7 @@
         <v>2761</v>
       </c>
       <c r="B2761">
-        <v>650.6634542173216</v>
+        <v>650.6634542173215</v>
       </c>
     </row>
     <row r="2762" spans="1:2">
@@ -22455,7 +22455,7 @@
         <v>2764</v>
       </c>
       <c r="B2764">
-        <v>624.8954762140615</v>
+        <v>624.8954762140614</v>
       </c>
     </row>
     <row r="2765" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>793.0905864996241</v>
+        <v>793.090586499624</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22783,7 +22783,7 @@
         <v>2805</v>
       </c>
       <c r="B2805">
-        <v>645.0143634116049</v>
+        <v>645.0143634116048</v>
       </c>
     </row>
     <row r="2806" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>684.6660250364728</v>
+        <v>684.6660250364727</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22815,7 +22815,7 @@
         <v>2809</v>
       </c>
       <c r="B2809">
-        <v>753.1925693596575</v>
+        <v>753.1925693596573</v>
       </c>
     </row>
     <row r="2810" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>671.1326785344808</v>
+        <v>671.1326785344806</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -22863,7 +22863,7 @@
         <v>2815</v>
       </c>
       <c r="B2815">
-        <v>668.2019681478673</v>
+        <v>668.2019681478672</v>
       </c>
     </row>
     <row r="2816" spans="1:2">
@@ -22927,7 +22927,7 @@
         <v>2823</v>
       </c>
       <c r="B2823">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2824" spans="1:2">
@@ -22943,7 +22943,7 @@
         <v>2825</v>
       </c>
       <c r="B2825">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="2826" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>808.8760667053131</v>
+        <v>808.876066705313</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23223,7 +23223,7 @@
         <v>2860</v>
       </c>
       <c r="B2860">
-        <v>928.7781692555586</v>
+        <v>928.7781692555585</v>
       </c>
     </row>
     <row r="2861" spans="1:2">
@@ -23231,7 +23231,7 @@
         <v>2861</v>
       </c>
       <c r="B2861">
-        <v>896.3773781982111</v>
+        <v>896.377378198211</v>
       </c>
     </row>
     <row r="2862" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>571.1418809650947</v>
+        <v>571.1418809650946</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23375,7 +23375,7 @@
         <v>2879</v>
       </c>
       <c r="B2879">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="2880" spans="1:2">
@@ -23407,7 +23407,7 @@
         <v>2883</v>
       </c>
       <c r="B2883">
-        <v>703.3643969096246</v>
+        <v>703.3643969096245</v>
       </c>
     </row>
     <row r="2884" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23903,7 +23903,7 @@
         <v>2945</v>
       </c>
       <c r="B2945">
-        <v>143.5960168128994</v>
+        <v>143.5960168128993</v>
       </c>
     </row>
     <row r="2946" spans="1:2">
@@ -24015,7 +24015,7 @@
         <v>2959</v>
       </c>
       <c r="B2959">
-        <v>640.6771875261933</v>
+        <v>640.6771875261932</v>
       </c>
     </row>
     <row r="2960" spans="1:2">
@@ -24055,7 +24055,7 @@
         <v>2964</v>
       </c>
       <c r="B2964">
-        <v>255.3073699746377</v>
+        <v>255.3073699746376</v>
       </c>
     </row>
     <row r="2965" spans="1:2">
@@ -24119,7 +24119,7 @@
         <v>2972</v>
       </c>
       <c r="B2972">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2973" spans="1:2">
@@ -24191,7 +24191,7 @@
         <v>2981</v>
       </c>
       <c r="B2981">
-        <v>867.4902744375821</v>
+        <v>867.490274437582</v>
       </c>
     </row>
     <row r="2982" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>671.1326785344808</v>
+        <v>671.1326785344806</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24367,7 +24367,7 @@
         <v>3003</v>
       </c>
       <c r="B3003">
-        <v>785.4303836124054</v>
+        <v>785.4303836124053</v>
       </c>
     </row>
     <row r="3004" spans="1:2">
@@ -24567,7 +24567,7 @@
         <v>3028</v>
       </c>
       <c r="B3028">
-        <v>492.9283511647523</v>
+        <v>492.9283511647522</v>
       </c>
     </row>
     <row r="3029" spans="1:2">
@@ -24583,7 +24583,7 @@
         <v>3030</v>
       </c>
       <c r="B3030">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3031" spans="1:2">
@@ -24759,7 +24759,7 @@
         <v>3052</v>
       </c>
       <c r="B3052">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3053" spans="1:2">
@@ -24791,7 +24791,7 @@
         <v>3056</v>
       </c>
       <c r="B3056">
-        <v>128.3862160484529</v>
+        <v>128.3862160484528</v>
       </c>
     </row>
     <row r="3057" spans="1:2">
@@ -24879,7 +24879,7 @@
         <v>3067</v>
       </c>
       <c r="B3067">
-        <v>139.5232085886227</v>
+        <v>139.5232085886226</v>
       </c>
     </row>
     <row r="3068" spans="1:2">
@@ -24911,7 +24911,7 @@
         <v>3071</v>
       </c>
       <c r="B3071">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="3072" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -25031,7 +25031,7 @@
         <v>3086</v>
       </c>
       <c r="B3086">
-        <v>276.6051354251963</v>
+        <v>276.6051354251962</v>
       </c>
     </row>
     <row r="3087" spans="1:2">
@@ -25079,7 +25079,7 @@
         <v>3092</v>
       </c>
       <c r="B3092">
-        <v>287.4130091889494</v>
+        <v>287.4130091889493</v>
       </c>
     </row>
     <row r="3093" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25231,7 +25231,7 @@
         <v>3111</v>
       </c>
       <c r="B3111">
-        <v>63.65473652620554</v>
+        <v>63.65473652620553</v>
       </c>
     </row>
     <row r="3112" spans="1:2">
@@ -25311,7 +25311,7 @@
         <v>3121</v>
       </c>
       <c r="B3121">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3122" spans="1:2">
@@ -25319,7 +25319,7 @@
         <v>3122</v>
       </c>
       <c r="B3122">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3123" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>190.2851639820383</v>
+        <v>190.2851639820382</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>210.7705365134277</v>
+        <v>210.7705365134276</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25511,7 +25511,7 @@
         <v>3146</v>
       </c>
       <c r="B3146">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="3147" spans="1:2">
@@ -25527,7 +25527,7 @@
         <v>3148</v>
       </c>
       <c r="B3148">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="3149" spans="1:2">
@@ -25687,7 +25687,7 @@
         <v>3168</v>
       </c>
       <c r="B3168">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3169" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25743,7 +25743,7 @@
         <v>3175</v>
       </c>
       <c r="B3175">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="3176" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>129.9002210341774</v>
+        <v>129.9002210341773</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -25943,7 +25943,7 @@
         <v>3200</v>
       </c>
       <c r="B3200">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3201" spans="1:2">
@@ -25951,7 +25951,7 @@
         <v>3201</v>
       </c>
       <c r="B3201">
-        <v>281.0943975954108</v>
+        <v>281.0943975954107</v>
       </c>
     </row>
     <row r="3202" spans="1:2">
@@ -26087,7 +26087,7 @@
         <v>3218</v>
       </c>
       <c r="B3218">
-        <v>612.5184708022117</v>
+        <v>612.5184708022116</v>
       </c>
     </row>
     <row r="3219" spans="1:2">
@@ -26247,7 +26247,7 @@
         <v>3238</v>
       </c>
       <c r="B3238">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="3239" spans="1:2">
@@ -26271,7 +26271,7 @@
         <v>3241</v>
       </c>
       <c r="B3241">
-        <v>668.2019681478673</v>
+        <v>668.2019681478672</v>
       </c>
     </row>
     <row r="3242" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>106.5606296572652</v>
+        <v>106.5606296572651</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26583,7 +26583,7 @@
         <v>3280</v>
       </c>
       <c r="B3280">
-        <v>49.69869366515228</v>
+        <v>49.69869366515227</v>
       </c>
     </row>
     <row r="3281" spans="1:2">
@@ -26655,7 +26655,7 @@
         <v>3289</v>
       </c>
       <c r="B3289">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -26711,7 +26711,7 @@
         <v>3296</v>
       </c>
       <c r="B3296">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3297" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>984.7186899021202</v>
+        <v>984.71868990212</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -26919,7 +26919,7 @@
         <v>3322</v>
       </c>
       <c r="B3322">
-        <v>583.2113669360772</v>
+        <v>583.2113669360771</v>
       </c>
     </row>
     <row r="3323" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -27023,7 +27023,7 @@
         <v>3335</v>
       </c>
       <c r="B3335">
-        <v>841.113880958061</v>
+        <v>841.1138809580609</v>
       </c>
     </row>
     <row r="3336" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27151,7 +27151,7 @@
         <v>3351</v>
       </c>
       <c r="B3351">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3352" spans="1:2">
@@ -27359,7 +27359,7 @@
         <v>3377</v>
       </c>
       <c r="B3377">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="3378" spans="1:2">
@@ -27391,7 +27391,7 @@
         <v>3381</v>
       </c>
       <c r="B3381">
-        <v>621.5540267667642</v>
+        <v>621.5540267667641</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -27615,7 +27615,7 @@
         <v>3409</v>
       </c>
       <c r="B3409">
-        <v>819.8106643861832</v>
+        <v>819.8106643861831</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27631,7 +27631,7 @@
         <v>3411</v>
       </c>
       <c r="B3411">
-        <v>917.1526272939403</v>
+        <v>917.1526272939402</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>85.69836777015729</v>
+        <v>85.69836777015728</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27735,7 +27735,7 @@
         <v>3424</v>
       </c>
       <c r="B3424">
-        <v>66.03037036559441</v>
+        <v>66.03037036559439</v>
       </c>
     </row>
     <row r="3425" spans="1:2">
@@ -27799,7 +27799,7 @@
         <v>3432</v>
       </c>
       <c r="B3432">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3433" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -28007,7 +28007,7 @@
         <v>3458</v>
       </c>
       <c r="B3458">
-        <v>224.1720889693337</v>
+        <v>224.1720889693336</v>
       </c>
     </row>
     <row r="3459" spans="1:2">
@@ -28111,7 +28111,7 @@
         <v>3471</v>
       </c>
       <c r="B3471">
-        <v>52.45238914441428</v>
+        <v>52.45238914441427</v>
       </c>
     </row>
     <row r="3472" spans="1:2">
@@ -28127,7 +28127,7 @@
         <v>3473</v>
       </c>
       <c r="B3473">
-        <v>51.97116649893235</v>
+        <v>51.97116649893234</v>
       </c>
     </row>
     <row r="3474" spans="1:2">
@@ -28191,7 +28191,7 @@
         <v>3481</v>
       </c>
       <c r="B3481">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3482" spans="1:2">
@@ -28239,7 +28239,7 @@
         <v>3487</v>
       </c>
       <c r="B3487">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3488" spans="1:2">
@@ -28303,7 +28303,7 @@
         <v>3495</v>
       </c>
       <c r="B3495">
-        <v>88.81605747943668</v>
+        <v>88.81605747943667</v>
       </c>
     </row>
     <row r="3496" spans="1:2">
@@ -28383,7 +28383,7 @@
         <v>3505</v>
       </c>
       <c r="B3505">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -28599,7 +28599,7 @@
         <v>3532</v>
       </c>
       <c r="B3532">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="3533" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28799,7 +28799,7 @@
         <v>3557</v>
       </c>
       <c r="B3557">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>66.50192166680051</v>
+        <v>66.5019216668005</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>55.90183526945831</v>
+        <v>55.9018352694583</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>42.19812657269247</v>
+        <v>42.19812657269246</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29095,7 +29095,7 @@
         <v>3594</v>
       </c>
       <c r="B3594">
-        <v>45.97874297142382</v>
+        <v>45.97874297142381</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
@@ -29159,7 +29159,7 @@
         <v>3602</v>
       </c>
       <c r="B3602">
-        <v>249.507201048491</v>
+        <v>249.5072010484909</v>
       </c>
     </row>
     <row r="3603" spans="1:2">
@@ -29207,7 +29207,7 @@
         <v>3608</v>
       </c>
       <c r="B3608">
-        <v>69.56861701535283</v>
+        <v>69.56861701535281</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -29471,7 +29471,7 @@
         <v>3641</v>
       </c>
       <c r="B3641">
-        <v>37.1590631339493</v>
+        <v>37.15906313394929</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -29479,7 +29479,7 @@
         <v>3642</v>
       </c>
       <c r="B3642">
-        <v>39.78292814308432</v>
+        <v>39.78292814308431</v>
       </c>
     </row>
     <row r="3643" spans="1:2">
@@ -29551,7 +29551,7 @@
         <v>3651</v>
       </c>
       <c r="B3651">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3652" spans="1:2">
@@ -29591,7 +29591,7 @@
         <v>3656</v>
       </c>
       <c r="B3656">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3657" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>261.6192409342871</v>
+        <v>261.619240934287</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29703,7 +29703,7 @@
         <v>3670</v>
       </c>
       <c r="B3670">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -29727,7 +29727,7 @@
         <v>3673</v>
       </c>
       <c r="B3673">
-        <v>583.2113669360772</v>
+        <v>583.2113669360771</v>
       </c>
     </row>
     <row r="3674" spans="1:2">
@@ -29751,7 +29751,7 @@
         <v>3676</v>
       </c>
       <c r="B3676">
-        <v>867.4902744375821</v>
+        <v>867.490274437582</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -29887,7 +29887,7 @@
         <v>3693</v>
       </c>
       <c r="B3693">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -29927,7 +29927,7 @@
         <v>3698</v>
       </c>
       <c r="B3698">
-        <v>612.5184708022117</v>
+        <v>612.5184708022116</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -29943,7 +29943,7 @@
         <v>3700</v>
       </c>
       <c r="B3700">
-        <v>556.9380632459025</v>
+        <v>556.9380632459024</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>97.94961639931751</v>
+        <v>97.94961639931748</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>69.73683979154444</v>
+        <v>69.73683979154443</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30063,7 +30063,7 @@
         <v>3715</v>
       </c>
       <c r="B3715">
-        <v>55.6676715095679</v>
+        <v>55.66767150956789</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -30143,7 +30143,7 @@
         <v>3725</v>
       </c>
       <c r="B3725">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>70.47860259039631</v>
+        <v>70.47860259039629</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>49.15827066986076</v>
+        <v>49.15827066986075</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30231,7 +30231,7 @@
         <v>3736</v>
       </c>
       <c r="B3736">
-        <v>50.99289537188078</v>
+        <v>50.99289537188077</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>85.70100540950524</v>
+        <v>85.70100540950523</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>40.51912259220162</v>
+        <v>40.51912259220161</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30423,7 +30423,7 @@
         <v>3760</v>
       </c>
       <c r="B3760">
-        <v>40.26444385960491</v>
+        <v>40.2644438596049</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -30463,7 +30463,7 @@
         <v>3765</v>
       </c>
       <c r="B3765">
-        <v>89.38959750209693</v>
+        <v>89.38959750209692</v>
       </c>
     </row>
     <row r="3766" spans="1:2">
@@ -30487,7 +30487,7 @@
         <v>3768</v>
       </c>
       <c r="B3768">
-        <v>135.4228516867118</v>
+        <v>135.4228516867117</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -30503,7 +30503,7 @@
         <v>3770</v>
       </c>
       <c r="B3770">
-        <v>155.5213704470682</v>
+        <v>155.5213704470681</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -30543,7 +30543,7 @@
         <v>3775</v>
       </c>
       <c r="B3775">
-        <v>87.06876794693774</v>
+        <v>87.06876794693773</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>47.72925628534804</v>
+        <v>47.72925628534803</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>41.23509513965129</v>
+        <v>41.23509513965128</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>36.90907353797117</v>
+        <v>36.90907353797116</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -30631,7 +30631,7 @@
         <v>3786</v>
       </c>
       <c r="B3786">
-        <v>36.64941259771722</v>
+        <v>36.64941259771721</v>
       </c>
     </row>
     <row r="3787" spans="1:2">
@@ -30735,7 +30735,7 @@
         <v>3799</v>
       </c>
       <c r="B3799">
-        <v>86.34810626286949</v>
+        <v>86.34810626286948</v>
       </c>
     </row>
     <row r="3800" spans="1:2">
@@ -30807,7 +30807,7 @@
         <v>3808</v>
       </c>
       <c r="B3808">
-        <v>39.04907826227631</v>
+        <v>39.0490782622763</v>
       </c>
     </row>
     <row r="3809" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>48.57007709526744</v>
+        <v>48.57007709526743</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30903,7 +30903,7 @@
         <v>3820</v>
       </c>
       <c r="B3820">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="3821" spans="1:2">
@@ -30911,7 +30911,7 @@
         <v>3821</v>
       </c>
       <c r="B3821">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="3822" spans="1:2">
@@ -30927,7 +30927,7 @@
         <v>3823</v>
       </c>
       <c r="B3823">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3824" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>239.0117410119509</v>
+        <v>239.0117410119508</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31087,7 +31087,7 @@
         <v>3843</v>
       </c>
       <c r="B3843">
-        <v>668.2019681478673</v>
+        <v>668.2019681478672</v>
       </c>
     </row>
     <row r="3844" spans="1:2">
@@ -31095,7 +31095,7 @@
         <v>3844</v>
       </c>
       <c r="B3844">
-        <v>671.1326785344808</v>
+        <v>671.1326785344806</v>
       </c>
     </row>
     <row r="3845" spans="1:2">
@@ -31111,7 +31111,7 @@
         <v>3846</v>
       </c>
       <c r="B3846">
-        <v>612.5184708022117</v>
+        <v>612.5184708022116</v>
       </c>
     </row>
     <row r="3847" spans="1:2">
@@ -31271,7 +31271,7 @@
         <v>3866</v>
       </c>
       <c r="B3866">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3867" spans="1:2">
@@ -31287,7 +31287,7 @@
         <v>3868</v>
       </c>
       <c r="B3868">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3869" spans="1:2">
@@ -31463,7 +31463,7 @@
         <v>3890</v>
       </c>
       <c r="B3890">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3891" spans="1:2">
@@ -31471,7 +31471,7 @@
         <v>3891</v>
       </c>
       <c r="B3891">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3892" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>48.13926266843526</v>
+        <v>48.13926266843525</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -31599,7 +31599,7 @@
         <v>3907</v>
       </c>
       <c r="B3907">
-        <v>56.53135186050288</v>
+        <v>56.53135186050287</v>
       </c>
     </row>
     <row r="3908" spans="1:2">
@@ -31895,7 +31895,7 @@
         <v>3944</v>
       </c>
       <c r="B3944">
-        <v>56.62542766391317</v>
+        <v>56.62542766391316</v>
       </c>
     </row>
     <row r="3945" spans="1:2">
@@ -31903,7 +31903,7 @@
         <v>3945</v>
       </c>
       <c r="B3945">
-        <v>50.3838937535425</v>
+        <v>50.38389375354249</v>
       </c>
     </row>
     <row r="3946" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>96.73161316264095</v>
+        <v>96.73161316264094</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>58.2302846716227</v>
+        <v>58.23028467162269</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>25.96729561665371</v>
+        <v>25.9672956166537</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>38.44535192263394</v>
+        <v>38.44535192263393</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32223,7 +32223,7 @@
         <v>3985</v>
       </c>
       <c r="B3985">
-        <v>136.4342398411321</v>
+        <v>136.434239841132</v>
       </c>
     </row>
     <row r="3986" spans="1:2">
@@ -32239,7 +32239,7 @@
         <v>3987</v>
       </c>
       <c r="B3987">
-        <v>157.8512852044259</v>
+        <v>157.8512852044258</v>
       </c>
     </row>
     <row r="3988" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>72.09401015549764</v>
+        <v>72.09401015549763</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32447,7 +32447,7 @@
         <v>4013</v>
       </c>
       <c r="B4013">
-        <v>283.4471718937841</v>
+        <v>283.447171893784</v>
       </c>
     </row>
     <row r="4014" spans="1:2">
@@ -32543,7 +32543,7 @@
         <v>4025</v>
       </c>
       <c r="B4025">
-        <v>57.47679903122438</v>
+        <v>57.47679903122437</v>
       </c>
     </row>
     <row r="4026" spans="1:2">
@@ -32631,7 +32631,7 @@
         <v>4036</v>
       </c>
       <c r="B4036">
-        <v>268.0711998504166</v>
+        <v>268.0711998504165</v>
       </c>
     </row>
     <row r="4037" spans="1:2">
@@ -32759,7 +32759,7 @@
         <v>4052</v>
       </c>
       <c r="B4052">
-        <v>47.4209455526763</v>
+        <v>47.42094555267629</v>
       </c>
     </row>
     <row r="4053" spans="1:2">
@@ -32871,7 +32871,7 @@
         <v>4066</v>
       </c>
       <c r="B4066">
-        <v>44.06293759169461</v>
+        <v>44.0629375916946</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>31.56726771629083</v>
+        <v>31.56726771629082</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>29.3088622923665</v>
+        <v>29.30886229236649</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -32967,7 +32967,7 @@
         <v>4078</v>
       </c>
       <c r="B4078">
-        <v>78.26169016412565</v>
+        <v>78.26169016412564</v>
       </c>
     </row>
     <row r="4079" spans="1:2">
@@ -33031,7 +33031,7 @@
         <v>4086</v>
       </c>
       <c r="B4086">
-        <v>84.80684567054948</v>
+        <v>84.80684567054946</v>
       </c>
     </row>
     <row r="4087" spans="1:2">
@@ -33095,7 +33095,7 @@
         <v>4094</v>
       </c>
       <c r="B4094">
-        <v>36.63651747201612</v>
+        <v>36.63651747201611</v>
       </c>
     </row>
     <row r="4095" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>39.29877478721578</v>
+        <v>39.29877478721577</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33319,7 +33319,7 @@
         <v>4122</v>
       </c>
       <c r="B4122">
-        <v>39.24016057948351</v>
+        <v>39.2401605794835</v>
       </c>
     </row>
     <row r="4123" spans="1:2">
@@ -33335,7 +33335,7 @@
         <v>4124</v>
       </c>
       <c r="B4124">
-        <v>56.31242779462286</v>
+        <v>56.31242779462285</v>
       </c>
     </row>
     <row r="4125" spans="1:2">
@@ -33343,7 +33343,7 @@
         <v>4125</v>
       </c>
       <c r="B4125">
-        <v>88.20998657148502</v>
+        <v>88.209986571485</v>
       </c>
     </row>
     <row r="4126" spans="1:2">
@@ -33423,7 +33423,7 @@
         <v>4135</v>
       </c>
       <c r="B4135">
-        <v>84.57444033689103</v>
+        <v>84.57444033689102</v>
       </c>
     </row>
     <row r="4136" spans="1:2">
@@ -33511,7 +33511,7 @@
         <v>4146</v>
       </c>
       <c r="B4146">
-        <v>35.58966772191779</v>
+        <v>35.58966772191778</v>
       </c>
     </row>
     <row r="4147" spans="1:2">
@@ -33527,7 +33527,7 @@
         <v>4148</v>
       </c>
       <c r="B4148">
-        <v>47.35734913728679</v>
+        <v>47.35734913728678</v>
       </c>
     </row>
     <row r="4149" spans="1:2">
@@ -33559,7 +33559,7 @@
         <v>4152</v>
       </c>
       <c r="B4152">
-        <v>155.4941148404727</v>
+        <v>155.4941148404726</v>
       </c>
     </row>
     <row r="4153" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>97.24888354587824</v>
+        <v>97.2488835458782</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33647,7 +33647,7 @@
         <v>4163</v>
       </c>
       <c r="B4163">
-        <v>63.37162990285868</v>
+        <v>63.37162990285867</v>
       </c>
     </row>
     <row r="4164" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>67.95379559232882</v>
+        <v>67.9537955923288</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33695,7 +33695,7 @@
         <v>4169</v>
       </c>
       <c r="B4169">
-        <v>78.56970782575873</v>
+        <v>78.56970782575871</v>
       </c>
     </row>
     <row r="4170" spans="1:2">
@@ -33759,7 +33759,7 @@
         <v>4177</v>
       </c>
       <c r="B4177">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4178" spans="1:2">
@@ -33775,7 +33775,7 @@
         <v>4179</v>
       </c>
       <c r="B4179">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="4180" spans="1:2">
@@ -33831,7 +33831,7 @@
         <v>4186</v>
       </c>
       <c r="B4186">
-        <v>88.18478246216014</v>
+        <v>88.18478246216013</v>
       </c>
     </row>
     <row r="4187" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>51.55090262949198</v>
+        <v>51.55090262949197</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -33991,7 +33991,7 @@
         <v>4206</v>
       </c>
       <c r="B4206">
-        <v>99.0808706085503</v>
+        <v>99.08087060855028</v>
       </c>
     </row>
     <row r="4207" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>39.87993465688123</v>
+        <v>39.87993465688122</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34119,7 +34119,7 @@
         <v>4222</v>
       </c>
       <c r="B4222">
-        <v>100.2525686211184</v>
+        <v>100.2525686211183</v>
       </c>
     </row>
     <row r="4223" spans="1:2">
@@ -34135,7 +34135,7 @@
         <v>4224</v>
       </c>
       <c r="B4224">
-        <v>168.5612732412661</v>
+        <v>168.561273241266</v>
       </c>
     </row>
     <row r="4225" spans="1:2">
@@ -34175,7 +34175,7 @@
         <v>4229</v>
       </c>
       <c r="B4229">
-        <v>225.4566193317864</v>
+        <v>225.4566193317863</v>
       </c>
     </row>
     <row r="4230" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>45.13030231449923</v>
+        <v>45.13030231449922</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>43.55592469481048</v>
+        <v>43.55592469481047</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34583,7 +34583,7 @@
         <v>4280</v>
       </c>
       <c r="B4280">
-        <v>78.56238104979219</v>
+        <v>78.56238104979218</v>
       </c>
     </row>
     <row r="4281" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>52.49048837944025</v>
+        <v>52.49048837944024</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34655,7 +34655,7 @@
         <v>4289</v>
       </c>
       <c r="B4289">
-        <v>39.19180385810439</v>
+        <v>39.19180385810438</v>
       </c>
     </row>
     <row r="4290" spans="1:2">
@@ -34703,7 +34703,7 @@
         <v>4295</v>
       </c>
       <c r="B4295">
-        <v>111.8883680690898</v>
+        <v>111.8883680690897</v>
       </c>
     </row>
     <row r="4296" spans="1:2">
@@ -34863,7 +34863,7 @@
         <v>4315</v>
       </c>
       <c r="B4315">
-        <v>54.92092650305879</v>
+        <v>54.92092650305878</v>
       </c>
     </row>
     <row r="4316" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>96.06194583929978</v>
+        <v>96.06194583929975</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35167,7 +35167,7 @@
         <v>4353</v>
       </c>
       <c r="B4353">
-        <v>244.7814305500768</v>
+        <v>244.7814305500767</v>
       </c>
     </row>
     <row r="4354" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>84.6717399217266</v>
+        <v>84.67173992172658</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35239,7 +35239,7 @@
         <v>4362</v>
       </c>
       <c r="B4362">
-        <v>113.5700096889286</v>
+        <v>113.5700096889285</v>
       </c>
     </row>
     <row r="4363" spans="1:2">
@@ -35255,7 +35255,7 @@
         <v>4364</v>
       </c>
       <c r="B4364">
-        <v>179.8831936068312</v>
+        <v>179.8831936068311</v>
       </c>
     </row>
     <row r="4365" spans="1:2">
@@ -35311,7 +35311,7 @@
         <v>4371</v>
       </c>
       <c r="B4371">
-        <v>262.1605431426946</v>
+        <v>262.1605431426945</v>
       </c>
     </row>
     <row r="4372" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>52.33252308960179</v>
+        <v>52.33252308960178</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35455,7 +35455,7 @@
         <v>4389</v>
       </c>
       <c r="B4389">
-        <v>92.92843029393268</v>
+        <v>92.92843029393266</v>
       </c>
     </row>
     <row r="4390" spans="1:2">
@@ -35527,7 +35527,7 @@
         <v>4398</v>
       </c>
       <c r="B4398">
-        <v>113.9231602905155</v>
+        <v>113.9231602905154</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
@@ -35607,7 +35607,7 @@
         <v>4408</v>
       </c>
       <c r="B4408">
-        <v>37.30149565873871</v>
+        <v>37.3014956587387</v>
       </c>
     </row>
     <row r="4409" spans="1:2">
@@ -35639,7 +35639,7 @@
         <v>4412</v>
       </c>
       <c r="B4412">
-        <v>73.83924819072595</v>
+        <v>73.83924819072594</v>
       </c>
     </row>
     <row r="4413" spans="1:2">
@@ -35671,7 +35671,7 @@
         <v>4416</v>
       </c>
       <c r="B4416">
-        <v>171.7205790380354</v>
+        <v>171.7205790380353</v>
       </c>
     </row>
     <row r="4417" spans="1:2">
@@ -35679,7 +35679,7 @@
         <v>4417</v>
       </c>
       <c r="B4417">
-        <v>215.5584380720381</v>
+        <v>215.558438072038</v>
       </c>
     </row>
     <row r="4418" spans="1:2">
@@ -35743,7 +35743,7 @@
         <v>4425</v>
       </c>
       <c r="B4425">
-        <v>250.6680554326286</v>
+        <v>250.6680554326285</v>
       </c>
     </row>
     <row r="4426" spans="1:2">
@@ -35839,7 +35839,7 @@
         <v>4437</v>
       </c>
       <c r="B4437">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="4438" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>61.52967842487213</v>
+        <v>61.52967842487212</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>37.99197102582484</v>
+        <v>37.99197102582483</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -35999,7 +35999,7 @@
         <v>4457</v>
       </c>
       <c r="B4457">
-        <v>38.21118816274353</v>
+        <v>38.21118816274352</v>
       </c>
     </row>
     <row r="4458" spans="1:2">
@@ -36039,7 +36039,7 @@
         <v>4462</v>
       </c>
       <c r="B4462">
-        <v>114.0362857114388</v>
+        <v>114.0362857114387</v>
       </c>
     </row>
     <row r="4463" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>48.52934022089351</v>
+        <v>48.5293402208935</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>41.16124123790863</v>
+        <v>41.16124123790862</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36175,7 +36175,7 @@
         <v>4479</v>
       </c>
       <c r="B4479">
-        <v>31.56726771629083</v>
+        <v>31.56726771629082</v>
       </c>
     </row>
     <row r="4480" spans="1:2">
@@ -36183,7 +36183,7 @@
         <v>4480</v>
       </c>
       <c r="B4480">
-        <v>30.06439943003545</v>
+        <v>30.06439943003544</v>
       </c>
     </row>
     <row r="4481" spans="1:2">
@@ -36231,7 +36231,7 @@
         <v>4486</v>
       </c>
       <c r="B4486">
-        <v>79.64205475622059</v>
+        <v>79.64205475622057</v>
       </c>
     </row>
     <row r="4487" spans="1:2">
@@ -36255,7 +36255,7 @@
         <v>4489</v>
       </c>
       <c r="B4489">
-        <v>166.6445886484209</v>
+        <v>166.6445886484208</v>
       </c>
     </row>
     <row r="4490" spans="1:2">
@@ -36303,7 +36303,7 @@
         <v>4495</v>
       </c>
       <c r="B4495">
-        <v>131.4719610145182</v>
+        <v>131.4719610145181</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36311,7 +36311,7 @@
         <v>4496</v>
       </c>
       <c r="B4496">
-        <v>92.78599776914326</v>
+        <v>92.78599776914324</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>49.49237165393469</v>
+        <v>49.49237165393468</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>53.54818175796905</v>
+        <v>53.54818175796904</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36799,7 +36799,7 @@
         <v>4557</v>
       </c>
       <c r="B4557">
-        <v>95.3870032372627</v>
+        <v>95.38700323726268</v>
       </c>
     </row>
     <row r="4558" spans="1:2">
@@ -36807,7 +36807,7 @@
         <v>4558</v>
       </c>
       <c r="B4558">
-        <v>113.4979142134179</v>
+        <v>113.4979142134178</v>
       </c>
     </row>
     <row r="4559" spans="1:2">
@@ -36895,7 +36895,7 @@
         <v>4569</v>
       </c>
       <c r="B4569">
-        <v>75.3089994496126</v>
+        <v>75.30899944961259</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>57.36953503107433</v>
+        <v>57.36953503107432</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>60.93386500327361</v>
+        <v>60.9338650032736</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -36975,7 +36975,7 @@
         <v>4579</v>
       </c>
       <c r="B4579">
-        <v>91.77724725407091</v>
+        <v>91.7772472540709</v>
       </c>
     </row>
     <row r="4580" spans="1:2">
@@ -37039,7 +37039,7 @@
         <v>4587</v>
       </c>
       <c r="B4587">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4588" spans="1:2">
@@ -37159,7 +37159,7 @@
         <v>4602</v>
       </c>
       <c r="B4602">
-        <v>33.64572752247709</v>
+        <v>33.64572752247708</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37263,7 +37263,7 @@
         <v>4615</v>
       </c>
       <c r="B4615">
-        <v>103.9517112711019</v>
+        <v>103.9517112711018</v>
       </c>
     </row>
     <row r="4616" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>45.78502301486867</v>
+        <v>45.78502301486866</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>39.19707913680029</v>
+        <v>39.19707913680028</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>40.93440425398475</v>
+        <v>40.93440425398474</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37359,7 +37359,7 @@
         <v>4627</v>
       </c>
       <c r="B4627">
-        <v>56.88010639650988</v>
+        <v>56.88010639650987</v>
       </c>
     </row>
     <row r="4628" spans="1:2">
@@ -37383,7 +37383,7 @@
         <v>4630</v>
       </c>
       <c r="B4630">
-        <v>106.7015968268613</v>
+        <v>106.7015968268612</v>
       </c>
     </row>
     <row r="4631" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>107.8395916699833</v>
+        <v>107.8395916699832</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37471,7 +37471,7 @@
         <v>4641</v>
       </c>
       <c r="B4641">
-        <v>68.75124188852634</v>
+        <v>68.75124188852632</v>
       </c>
     </row>
     <row r="4642" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>52.78092177875365</v>
+        <v>52.78092177875364</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>50.83463701100365</v>
+        <v>50.83463701100364</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>42.37895140354652</v>
+        <v>42.37895140354651</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -37607,7 +37607,7 @@
         <v>4658</v>
       </c>
       <c r="B4658">
-        <v>203.1788243279442</v>
+        <v>203.1788243279441</v>
       </c>
     </row>
     <row r="4659" spans="1:2">
@@ -37631,7 +37631,7 @@
         <v>4661</v>
       </c>
       <c r="B4661">
-        <v>216.2333806740752</v>
+        <v>216.2333806740751</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37647,7 +37647,7 @@
         <v>4663</v>
       </c>
       <c r="B4663">
-        <v>185.3627428166824</v>
+        <v>185.3627428166823</v>
       </c>
     </row>
     <row r="4664" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>78.60282485312746</v>
+        <v>78.60282485312744</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>79.91285239594367</v>
+        <v>79.91285239594366</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37895,7 +37895,7 @@
         <v>4694</v>
       </c>
       <c r="B4694">
-        <v>70.15006995605694</v>
+        <v>70.15006995605692</v>
       </c>
     </row>
     <row r="4695" spans="1:2">
@@ -37903,7 +37903,7 @@
         <v>4695</v>
       </c>
       <c r="B4695">
-        <v>58.59222740436946</v>
+        <v>58.59222740436945</v>
       </c>
     </row>
     <row r="4696" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>51.89438188680308</v>
+        <v>51.89438188680307</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>68.30811847807038</v>
+        <v>68.30811847807037</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -37975,7 +37975,7 @@
         <v>4704</v>
       </c>
       <c r="B4704">
-        <v>279.230172718486</v>
+        <v>279.2301727184859</v>
       </c>
     </row>
     <row r="4705" spans="1:2">
@@ -38031,7 +38031,7 @@
         <v>4711</v>
       </c>
       <c r="B4711">
-        <v>145.9068819527441</v>
+        <v>145.906881952744</v>
       </c>
     </row>
     <row r="4712" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>43.77777947107712</v>
+        <v>43.77777947107711</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38127,7 +38127,7 @@
         <v>4723</v>
       </c>
       <c r="B4723">
-        <v>41.06423472411172</v>
+        <v>41.06423472411171</v>
       </c>
     </row>
     <row r="4724" spans="1:2">
@@ -38343,7 +38343,7 @@
         <v>4750</v>
       </c>
       <c r="B4750">
-        <v>59.65695448782613</v>
+        <v>59.65695448782612</v>
       </c>
     </row>
     <row r="4751" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>29.62625822723674</v>
+        <v>29.62625822723673</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38503,7 +38503,7 @@
         <v>4770</v>
       </c>
       <c r="B4770">
-        <v>34.98301067188881</v>
+        <v>34.9830106718888</v>
       </c>
     </row>
     <row r="4771" spans="1:2">
@@ -38567,7 +38567,7 @@
         <v>4778</v>
       </c>
       <c r="B4778">
-        <v>100.9691273106454</v>
+        <v>100.9691273106453</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>52.57225519922677</v>
+        <v>52.57225519922676</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>47.8872215751865</v>
+        <v>47.88722157518649</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38695,7 +38695,7 @@
         <v>4794</v>
       </c>
       <c r="B4794">
-        <v>34.11698575264453</v>
+        <v>34.11698575264452</v>
       </c>
     </row>
     <row r="4795" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>71.54831188151022</v>
+        <v>71.5483118815102</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>35.13335611472208</v>
+        <v>35.13335611472207</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>32.10182929080912</v>
+        <v>32.10182929080911</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>27.72270321692357</v>
+        <v>27.72270321692356</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38895,7 +38895,7 @@
         <v>4819</v>
       </c>
       <c r="B4819">
-        <v>39.28353509320539</v>
+        <v>39.28353509320538</v>
       </c>
     </row>
     <row r="4820" spans="1:2">
@@ -38919,7 +38919,7 @@
         <v>4822</v>
       </c>
       <c r="B4822">
-        <v>55.26264733413792</v>
+        <v>55.26264733413791</v>
       </c>
     </row>
     <row r="4823" spans="1:2">
@@ -38927,7 +38927,7 @@
         <v>4823</v>
       </c>
       <c r="B4823">
-        <v>60.43681652170397</v>
+        <v>60.43681652170396</v>
       </c>
     </row>
     <row r="4824" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>50.80151998363492</v>
+        <v>50.80151998363491</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>46.46025868794441</v>
+        <v>46.4602586879444</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39143,7 +39143,7 @@
         <v>4850</v>
       </c>
       <c r="B4850">
-        <v>157.0764053782053</v>
+        <v>157.0764053782052</v>
       </c>
     </row>
     <row r="4851" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>54.44703063354339</v>
+        <v>54.44703063354338</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39279,7 +39279,7 @@
         <v>4867</v>
       </c>
       <c r="B4867">
-        <v>75.76472491473099</v>
+        <v>75.76472491473098</v>
       </c>
     </row>
     <row r="4868" spans="1:2">
@@ -39319,7 +39319,7 @@
         <v>4872</v>
       </c>
       <c r="B4872">
-        <v>133.5463178261632</v>
+        <v>133.5463178261631</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>92.6151373536037</v>
+        <v>92.61513735360369</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>53.91510669837305</v>
+        <v>53.91510669837304</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39551,7 +39551,7 @@
         <v>4901</v>
       </c>
       <c r="B4901">
-        <v>84.93345235925118</v>
+        <v>84.93345235925116</v>
       </c>
     </row>
     <row r="4902" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>46.48341129999866</v>
+        <v>46.48341129999865</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>29.39678360396491</v>
+        <v>29.3967836039649</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39687,7 +39687,7 @@
         <v>4918</v>
       </c>
       <c r="B4918">
-        <v>58.38883610353849</v>
+        <v>58.38883610353848</v>
       </c>
     </row>
     <row r="4919" spans="1:2">
@@ -39751,7 +39751,7 @@
         <v>4926</v>
       </c>
       <c r="B4926">
-        <v>72.27483498635169</v>
+        <v>72.27483498635168</v>
       </c>
     </row>
     <row r="4927" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>39.31928975992207</v>
+        <v>39.31928975992206</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39903,7 +39903,7 @@
         <v>4945</v>
       </c>
       <c r="B4945">
-        <v>135.2273733039247</v>
+        <v>135.2273733039246</v>
       </c>
     </row>
     <row r="4946" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>58.452432518928</v>
+        <v>58.45243251892799</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>44.36890375605705</v>
+        <v>44.36890375605704</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -40183,7 +40183,7 @@
         <v>4980</v>
       </c>
       <c r="B4980">
-        <v>69.62224901542785</v>
+        <v>69.62224901542784</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>43.73704259670319</v>
+        <v>43.73704259670318</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40239,7 +40239,7 @@
         <v>4987</v>
       </c>
       <c r="B4987">
-        <v>77.1430380095553</v>
+        <v>77.14303800955528</v>
       </c>
     </row>
     <row r="4988" spans="1:2">
@@ -40479,7 +40479,7 @@
         <v>5017</v>
       </c>
       <c r="B5017">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5018" spans="1:2">
@@ -40487,7 +40487,7 @@
         <v>5018</v>
       </c>
       <c r="B5018">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40639,7 +40639,7 @@
         <v>5037</v>
       </c>
       <c r="B5037">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40719,7 +40719,7 @@
         <v>5047</v>
       </c>
       <c r="B5047">
-        <v>211.6104781102311</v>
+        <v>211.610478110231</v>
       </c>
     </row>
     <row r="5048" spans="1:2">
@@ -40775,7 +40775,7 @@
         <v>5054</v>
       </c>
       <c r="B5054">
-        <v>73.19683647398028</v>
+        <v>73.19683647398027</v>
       </c>
     </row>
     <row r="5055" spans="1:2">
@@ -40791,7 +40791,7 @@
         <v>5056</v>
       </c>
       <c r="B5056">
-        <v>69.56920315743015</v>
+        <v>69.56920315743014</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -40799,7 +40799,7 @@
         <v>5057</v>
       </c>
       <c r="B5057">
-        <v>77.90531578111346</v>
+        <v>77.90531578111344</v>
       </c>
     </row>
     <row r="5058" spans="1:2">
@@ -40887,7 +40887,7 @@
         <v>5068</v>
       </c>
       <c r="B5068">
-        <v>280.7230765894269</v>
+        <v>280.7230765894268</v>
       </c>
     </row>
     <row r="5069" spans="1:2">
@@ -40943,7 +40943,7 @@
         <v>5075</v>
       </c>
       <c r="B5075">
-        <v>53.25276615099841</v>
+        <v>53.2527661509984</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>49.75730787288455</v>
+        <v>49.75730787288454</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -41023,7 +41023,7 @@
         <v>5085</v>
       </c>
       <c r="B5085">
-        <v>97.27731143662838</v>
+        <v>97.27731143662837</v>
       </c>
     </row>
     <row r="5086" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>43.86921763513946</v>
+        <v>43.86921763513945</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>42.4018109445621</v>
+        <v>42.40181094456209</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>51.38502442160966</v>
+        <v>51.38502442160965</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41279,7 +41279,7 @@
         <v>5117</v>
       </c>
       <c r="B5117">
-        <v>116.6246891248958</v>
+        <v>116.6246891248957</v>
       </c>
     </row>
     <row r="5118" spans="1:2">
@@ -41303,7 +41303,7 @@
         <v>5120</v>
       </c>
       <c r="B5120">
-        <v>57.8815301356157</v>
+        <v>57.88153013561569</v>
       </c>
     </row>
     <row r="5121" spans="1:2">
@@ -41335,7 +41335,7 @@
         <v>5124</v>
       </c>
       <c r="B5124">
-        <v>40.8376908112265</v>
+        <v>40.83769081122649</v>
       </c>
     </row>
     <row r="5125" spans="1:2">
@@ -41487,7 +41487,7 @@
         <v>5143</v>
       </c>
       <c r="B5143">
-        <v>89.8174812185425</v>
+        <v>89.81748121854248</v>
       </c>
     </row>
     <row r="5144" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>55.21663518106809</v>
+        <v>55.21663518106808</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41559,7 +41559,7 @@
         <v>5152</v>
       </c>
       <c r="B5152">
-        <v>40.67738095307875</v>
+        <v>40.67738095307874</v>
       </c>
     </row>
     <row r="5153" spans="1:2">
@@ -41727,7 +41727,7 @@
         <v>5173</v>
       </c>
       <c r="B5173">
-        <v>48.85787285523288</v>
+        <v>48.85787285523287</v>
       </c>
     </row>
     <row r="5174" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>46.38640478620175</v>
+        <v>46.38640478620174</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41783,7 +41783,7 @@
         <v>5180</v>
       </c>
       <c r="B5180">
-        <v>99.58026365842925</v>
+        <v>99.58026365842922</v>
       </c>
     </row>
     <row r="5181" spans="1:2">
@@ -42031,7 +42031,7 @@
         <v>5211</v>
       </c>
       <c r="B5211">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="5212" spans="1:2">
@@ -42191,7 +42191,7 @@
         <v>5231</v>
       </c>
       <c r="B5231">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="5232" spans="1:2">
@@ -42215,7 +42215,7 @@
         <v>5234</v>
       </c>
       <c r="B5234">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="5235" spans="1:2">
@@ -42231,7 +42231,7 @@
         <v>5236</v>
       </c>
       <c r="B5236">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="5237" spans="1:2">
@@ -42303,7 +42303,7 @@
         <v>5245</v>
       </c>
       <c r="B5245">
-        <v>63.21630225236817</v>
+        <v>63.21630225236816</v>
       </c>
     </row>
     <row r="5246" spans="1:2">
@@ -42343,7 +42343,7 @@
         <v>5250</v>
       </c>
       <c r="B5250">
-        <v>51.56584925246371</v>
+        <v>51.5658492524637</v>
       </c>
     </row>
     <row r="5251" spans="1:2">
@@ -42367,7 +42367,7 @@
         <v>5253</v>
       </c>
       <c r="B5253">
-        <v>160.7960630008951</v>
+        <v>160.796063000895</v>
       </c>
     </row>
     <row r="5254" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>61.69028135405854</v>
+        <v>61.69028135405853</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>48.64891320466734</v>
+        <v>48.64891320466733</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>39.73691599001449</v>
+        <v>39.73691599001448</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>54.12377327789993</v>
+        <v>54.12377327789992</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42663,7 +42663,7 @@
         <v>5290</v>
       </c>
       <c r="B5290">
-        <v>60.44179872936121</v>
+        <v>60.4417987293612</v>
       </c>
     </row>
     <row r="5291" spans="1:2">
@@ -42711,7 +42711,7 @@
         <v>5296</v>
       </c>
       <c r="B5296">
-        <v>37.88500009671345</v>
+        <v>37.88500009671344</v>
       </c>
     </row>
     <row r="5297" spans="1:2">
@@ -42751,7 +42751,7 @@
         <v>5301</v>
       </c>
       <c r="B5301">
-        <v>92.90791532122638</v>
+        <v>92.90791532122635</v>
       </c>
     </row>
     <row r="5302" spans="1:2">
@@ -42799,7 +42799,7 @@
         <v>5307</v>
       </c>
       <c r="B5307">
-        <v>203.7201265363517</v>
+        <v>203.7201265363516</v>
       </c>
     </row>
     <row r="5308" spans="1:2">
@@ -42847,7 +42847,7 @@
         <v>5313</v>
       </c>
       <c r="B5313">
-        <v>77.15886384564301</v>
+        <v>77.158863845643</v>
       </c>
     </row>
     <row r="5314" spans="1:2">
@@ -42903,7 +42903,7 @@
         <v>5320</v>
       </c>
       <c r="B5320">
-        <v>40.63400643935687</v>
+        <v>40.63400643935686</v>
       </c>
     </row>
     <row r="5321" spans="1:2">
@@ -42919,7 +42919,7 @@
         <v>5322</v>
       </c>
       <c r="B5322">
-        <v>45.60185361570533</v>
+        <v>45.60185361570532</v>
       </c>
     </row>
     <row r="5323" spans="1:2">
@@ -42927,7 +42927,7 @@
         <v>5323</v>
       </c>
       <c r="B5323">
-        <v>51.77979111068649</v>
+        <v>51.77979111068648</v>
       </c>
     </row>
     <row r="5324" spans="1:2">
@@ -42999,7 +42999,7 @@
         <v>5332</v>
       </c>
       <c r="B5332">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="5333" spans="1:2">
@@ -43071,7 +43071,7 @@
         <v>5341</v>
       </c>
       <c r="B5341">
-        <v>80.22028391549942</v>
+        <v>80.22028391549941</v>
       </c>
     </row>
     <row r="5342" spans="1:2">
@@ -43183,7 +43183,7 @@
         <v>5355</v>
       </c>
       <c r="B5355">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5356" spans="1:2">
@@ -43359,7 +43359,7 @@
         <v>5377</v>
       </c>
       <c r="B5377">
-        <v>219.1119244158069</v>
+        <v>219.1119244158068</v>
       </c>
     </row>
     <row r="5378" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>117.8778608862117</v>
+        <v>117.8778608862116</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>47.47692212106062</v>
+        <v>47.47692212106061</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43727,7 +43727,7 @@
         <v>5423</v>
       </c>
       <c r="B5423">
-        <v>88.47287129316425</v>
+        <v>88.47287129316423</v>
       </c>
     </row>
     <row r="5424" spans="1:2">
@@ -43767,7 +43767,7 @@
         <v>5428</v>
       </c>
       <c r="B5428">
-        <v>147.8540459336101</v>
+        <v>147.85404593361</v>
       </c>
     </row>
     <row r="5429" spans="1:2">
@@ -43823,7 +43823,7 @@
         <v>5435</v>
       </c>
       <c r="B5435">
-        <v>55.32888138887538</v>
+        <v>55.32888138887537</v>
       </c>
     </row>
     <row r="5436" spans="1:2">
@@ -43927,7 +43927,7 @@
         <v>5448</v>
       </c>
       <c r="B5448">
-        <v>229.99423822338</v>
+        <v>229.9942382233799</v>
       </c>
     </row>
     <row r="5449" spans="1:2">
@@ -44039,7 +44039,7 @@
         <v>5462</v>
       </c>
       <c r="B5462">
-        <v>93.26428970423858</v>
+        <v>93.26428970423856</v>
       </c>
     </row>
     <row r="5463" spans="1:2">
@@ -44127,7 +44127,7 @@
         <v>5473</v>
       </c>
       <c r="B5473">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="5474" spans="1:2">
@@ -44175,7 +44175,7 @@
         <v>5479</v>
       </c>
       <c r="B5479">
-        <v>178.5995424574945</v>
+        <v>178.5995424574944</v>
       </c>
     </row>
     <row r="5480" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>46.54964535473612</v>
+        <v>46.54964535473611</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44335,7 +44335,7 @@
         <v>5499</v>
       </c>
       <c r="B5499">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="5500" spans="1:2">
@@ -44503,7 +44503,7 @@
         <v>5520</v>
       </c>
       <c r="B5520">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5521" spans="1:2">
@@ -44519,7 +44519,7 @@
         <v>5522</v>
       </c>
       <c r="B5522">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="5523" spans="1:2">
@@ -44535,7 +44535,7 @@
         <v>5524</v>
       </c>
       <c r="B5524">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="5525" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44631,7 +44631,7 @@
         <v>5536</v>
       </c>
       <c r="B5536">
-        <v>123.4626225989423</v>
+        <v>123.4626225989422</v>
       </c>
     </row>
     <row r="5537" spans="1:2">
@@ -44663,7 +44663,7 @@
         <v>5540</v>
       </c>
       <c r="B5540">
-        <v>256.4099032220817</v>
+        <v>256.4099032220816</v>
       </c>
     </row>
     <row r="5541" spans="1:2">
@@ -44679,7 +44679,7 @@
         <v>5542</v>
       </c>
       <c r="B5542">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="5543" spans="1:2">
@@ -44727,7 +44727,7 @@
         <v>5548</v>
       </c>
       <c r="B5548">
-        <v>275.3276387676715</v>
+        <v>275.3276387676714</v>
       </c>
     </row>
     <row r="5549" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>55.36463605559207</v>
+        <v>55.36463605559206</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>42.21365933774152</v>
+        <v>42.21365933774151</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>65.63501753444025</v>
+        <v>65.63501753444024</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>55.8511339797699</v>
+        <v>55.85113397976989</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>50.59754254072662</v>
+        <v>50.59754254072661</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45279,7 +45279,7 @@
         <v>5617</v>
       </c>
       <c r="B5617">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="5618" spans="1:2">
@@ -45295,7 +45295,7 @@
         <v>5619</v>
       </c>
       <c r="B5619">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5620" spans="1:2">
@@ -45399,7 +45399,7 @@
         <v>5632</v>
       </c>
       <c r="B5632">
-        <v>42.90384163378899</v>
+        <v>42.90384163378898</v>
       </c>
     </row>
     <row r="5633" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>44.32552924233517</v>
+        <v>44.32552924233516</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45471,7 +45471,7 @@
         <v>5641</v>
       </c>
       <c r="B5641">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5642" spans="1:2">
@@ -45511,7 +45511,7 @@
         <v>5646</v>
       </c>
       <c r="B5646">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5647" spans="1:2">
@@ -45663,7 +45663,7 @@
         <v>5665</v>
       </c>
       <c r="B5665">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="5666" spans="1:2">
@@ -45687,7 +45687,7 @@
         <v>5668</v>
       </c>
       <c r="B5668">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="5669" spans="1:2">
@@ -45711,7 +45711,7 @@
         <v>5671</v>
       </c>
       <c r="B5671">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="5672" spans="1:2">
@@ -45871,7 +45871,7 @@
         <v>5691</v>
       </c>
       <c r="B5691">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="5692" spans="1:2">
@@ -45895,7 +45895,7 @@
         <v>5694</v>
       </c>
       <c r="B5694">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="5695" spans="1:2">
@@ -45991,7 +45991,7 @@
         <v>5706</v>
       </c>
       <c r="B5706">
-        <v>102.6150142637675</v>
+        <v>102.6150142637674</v>
       </c>
     </row>
     <row r="5707" spans="1:2">
@@ -46031,7 +46031,7 @@
         <v>5711</v>
       </c>
       <c r="B5711">
-        <v>265.0065559991349</v>
+        <v>265.0065559991348</v>
       </c>
     </row>
     <row r="5712" spans="1:2">
@@ -46207,7 +46207,7 @@
         <v>5733</v>
       </c>
       <c r="B5733">
-        <v>94.84394260262324</v>
+        <v>94.84394260262322</v>
       </c>
     </row>
     <row r="5734" spans="1:2">
@@ -46343,7 +46343,7 @@
         <v>5750</v>
       </c>
       <c r="B5750">
-        <v>41.05661487710653</v>
+        <v>41.05661487710652</v>
       </c>
     </row>
     <row r="5751" spans="1:2">
@@ -46359,7 +46359,7 @@
         <v>5752</v>
       </c>
       <c r="B5752">
-        <v>40.72837531380582</v>
+        <v>40.72837531380581</v>
       </c>
     </row>
     <row r="5753" spans="1:2">
@@ -46367,7 +46367,7 @@
         <v>5753</v>
       </c>
       <c r="B5753">
-        <v>43.41349217002107</v>
+        <v>43.41349217002106</v>
       </c>
     </row>
     <row r="5754" spans="1:2">
@@ -46391,7 +46391,7 @@
         <v>5756</v>
       </c>
       <c r="B5756">
-        <v>58.17958338193429</v>
+        <v>58.17958338193428</v>
       </c>
     </row>
     <row r="5757" spans="1:2">
@@ -46431,7 +46431,7 @@
         <v>5761</v>
       </c>
       <c r="B5761">
-        <v>129.2021258200861</v>
+        <v>129.202125820086</v>
       </c>
     </row>
     <row r="5762" spans="1:2">
@@ -46479,7 +46479,7 @@
         <v>5767</v>
       </c>
       <c r="B5767">
-        <v>81.38993043079685</v>
+        <v>81.38993043079684</v>
       </c>
     </row>
     <row r="5768" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>57.99084563303638</v>
+        <v>57.99084563303637</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46751,7 +46751,7 @@
         <v>5801</v>
       </c>
       <c r="B5801">
-        <v>40.56513474527145</v>
+        <v>40.56513474527144</v>
       </c>
     </row>
     <row r="5802" spans="1:2">
@@ -46815,7 +46815,7 @@
         <v>5809</v>
       </c>
       <c r="B5809">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="5810" spans="1:2">
@@ -46927,7 +46927,7 @@
         <v>5823</v>
       </c>
       <c r="B5823">
-        <v>45.84129265429165</v>
+        <v>45.84129265429164</v>
       </c>
     </row>
     <row r="5824" spans="1:2">
@@ -46943,7 +46943,7 @@
         <v>5825</v>
       </c>
       <c r="B5825">
-        <v>47.73160085365733</v>
+        <v>47.73160085365732</v>
       </c>
     </row>
     <row r="5826" spans="1:2">
@@ -46967,7 +46967,7 @@
         <v>5828</v>
       </c>
       <c r="B5828">
-        <v>80.7428295774326</v>
+        <v>80.74282957743259</v>
       </c>
     </row>
     <row r="5829" spans="1:2">
@@ -47007,7 +47007,7 @@
         <v>5833</v>
       </c>
       <c r="B5833">
-        <v>243.797298002252</v>
+        <v>243.7972980022519</v>
       </c>
     </row>
     <row r="5834" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>94.6379136624443</v>
+        <v>94.63791366244428</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>63.68492284318766</v>
+        <v>63.68492284318765</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47183,7 +47183,7 @@
         <v>5855</v>
       </c>
       <c r="B5855">
-        <v>283.5585388884754</v>
+        <v>283.5585388884753</v>
       </c>
     </row>
     <row r="5856" spans="1:2">
@@ -47263,7 +47263,7 @@
         <v>5865</v>
       </c>
       <c r="B5865">
-        <v>123.1162126312446</v>
+        <v>123.1162126312445</v>
       </c>
     </row>
     <row r="5866" spans="1:2">
@@ -47311,7 +47311,7 @@
         <v>5871</v>
       </c>
       <c r="B5871">
-        <v>48.43204063605794</v>
+        <v>48.43204063605793</v>
       </c>
     </row>
     <row r="5872" spans="1:2">
@@ -47551,7 +47551,7 @@
         <v>5901</v>
       </c>
       <c r="B5901">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="5902" spans="1:2">
@@ -47567,7 +47567,7 @@
         <v>5903</v>
       </c>
       <c r="B5903">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="5904" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47983,7 +47983,7 @@
         <v>5955</v>
       </c>
       <c r="B5955">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="5956" spans="1:2">
@@ -47991,7 +47991,7 @@
         <v>5956</v>
       </c>
       <c r="B5956">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="5957" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>52.50338350514135</v>
+        <v>52.50338350514134</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>48.44229812241109</v>
+        <v>48.44229812241108</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48151,7 +48151,7 @@
         <v>5976</v>
       </c>
       <c r="B5976">
-        <v>287.0513595272413</v>
+        <v>287.0513595272412</v>
       </c>
     </row>
     <row r="5977" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -48223,7 +48223,7 @@
         <v>5985</v>
       </c>
       <c r="B5985">
-        <v>82.82656466231477</v>
+        <v>82.82656466231475</v>
       </c>
     </row>
     <row r="5986" spans="1:2">
@@ -48303,7 +48303,7 @@
         <v>5995</v>
       </c>
       <c r="B5995">
-        <v>50.60545545877048</v>
+        <v>50.60545545877047</v>
       </c>
     </row>
     <row r="5996" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>218.1110868187784</v>
+        <v>218.1110868187783</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48551,7 +48551,7 @@
         <v>6026</v>
       </c>
       <c r="B6026">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6027" spans="1:2">
@@ -48647,7 +48647,7 @@
         <v>6038</v>
       </c>
       <c r="B6038">
-        <v>189.9361163749927</v>
+        <v>189.9361163749926</v>
       </c>
     </row>
     <row r="6039" spans="1:2">
@@ -48935,7 +48935,7 @@
         <v>6074</v>
       </c>
       <c r="B6074">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="6075" spans="1:2">
@@ -49007,7 +49007,7 @@
         <v>6083</v>
       </c>
       <c r="B6083">
-        <v>69.01090282878029</v>
+        <v>69.01090282878027</v>
       </c>
     </row>
     <row r="6084" spans="1:2">
@@ -49079,7 +49079,7 @@
         <v>6092</v>
       </c>
       <c r="B6092">
-        <v>118.8461675979488</v>
+        <v>118.8461675979487</v>
       </c>
     </row>
     <row r="6093" spans="1:2">
@@ -49135,7 +49135,7 @@
         <v>6099</v>
       </c>
       <c r="B6099">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="6100" spans="1:2">
@@ -49255,7 +49255,7 @@
         <v>6114</v>
       </c>
       <c r="B6114">
-        <v>69.04401985614902</v>
+        <v>69.04401985614901</v>
       </c>
     </row>
     <row r="6115" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>51.38267985330037</v>
+        <v>51.38267985330036</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49439,7 +49439,7 @@
         <v>6137</v>
       </c>
       <c r="B6137">
-        <v>48.48596570717163</v>
+        <v>48.48596570717162</v>
       </c>
     </row>
     <row r="6138" spans="1:2">
@@ -49447,7 +49447,7 @@
         <v>6138</v>
       </c>
       <c r="B6138">
-        <v>71.505230438827</v>
+        <v>71.50523043882698</v>
       </c>
     </row>
     <row r="6139" spans="1:2">
@@ -49463,7 +49463,7 @@
         <v>6140</v>
       </c>
       <c r="B6140">
-        <v>118.2447858266157</v>
+        <v>118.2447858266156</v>
       </c>
     </row>
     <row r="6141" spans="1:2">
@@ -49503,7 +49503,7 @@
         <v>6145</v>
       </c>
       <c r="B6145">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="6146" spans="1:2">
@@ -49559,7 +49559,7 @@
         <v>6152</v>
       </c>
       <c r="B6152">
-        <v>186.1933061402486</v>
+        <v>186.1933061402485</v>
       </c>
     </row>
     <row r="6153" spans="1:2">
@@ -49567,7 +49567,7 @@
         <v>6153</v>
       </c>
       <c r="B6153">
-        <v>91.07856589790228</v>
+        <v>91.07856589790224</v>
       </c>
     </row>
     <row r="6154" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>63.96773639549586</v>
+        <v>63.96773639549585</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49671,7 +49671,7 @@
         <v>6166</v>
       </c>
       <c r="B6166">
-        <v>154.9800682386607</v>
+        <v>154.9800682386606</v>
       </c>
     </row>
     <row r="6167" spans="1:2">
@@ -49695,7 +49695,7 @@
         <v>6169</v>
       </c>
       <c r="B6169">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6170" spans="1:2">
@@ -49711,7 +49711,7 @@
         <v>6171</v>
       </c>
       <c r="B6171">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="6172" spans="1:2">
@@ -49767,7 +49767,7 @@
         <v>6178</v>
       </c>
       <c r="B6178">
-        <v>233.2860121296242</v>
+        <v>233.2860121296241</v>
       </c>
     </row>
     <row r="6179" spans="1:2">
@@ -49871,7 +49871,7 @@
         <v>6191</v>
       </c>
       <c r="B6191">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="6192" spans="1:2">
@@ -49879,7 +49879,7 @@
         <v>6192</v>
       </c>
       <c r="B6192">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="6193" spans="1:2">
@@ -49999,7 +49999,7 @@
         <v>6207</v>
       </c>
       <c r="B6207">
-        <v>86.55208370577779</v>
+        <v>86.55208370577778</v>
       </c>
     </row>
     <row r="6208" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>200.107732913812</v>
+        <v>200.1077329138119</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50063,7 +50063,7 @@
         <v>6215</v>
       </c>
       <c r="B6215">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6216" spans="1:2">
@@ -50071,7 +50071,7 @@
         <v>6216</v>
       </c>
       <c r="B6216">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="6217" spans="1:2">
@@ -50239,7 +50239,7 @@
         <v>6237</v>
       </c>
       <c r="B6237">
-        <v>126.1193115644074</v>
+        <v>126.1193115644073</v>
       </c>
     </row>
     <row r="6238" spans="1:2">
@@ -50271,7 +50271,7 @@
         <v>6241</v>
       </c>
       <c r="B6241">
-        <v>229.1428668560688</v>
+        <v>229.1428668560687</v>
       </c>
     </row>
     <row r="6242" spans="1:2">
@@ -50279,7 +50279,7 @@
         <v>6242</v>
       </c>
       <c r="B6242">
-        <v>249.4904959992873</v>
+        <v>249.4904959992872</v>
       </c>
     </row>
     <row r="6243" spans="1:2">
@@ -50311,7 +50311,7 @@
         <v>6246</v>
       </c>
       <c r="B6246">
-        <v>149.3059198591384</v>
+        <v>149.3059198591383</v>
       </c>
     </row>
     <row r="6247" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>122.4990050238238</v>
+        <v>122.4990050238237</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>55.1937756400525</v>
+        <v>55.19377564005249</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50399,7 +50399,7 @@
         <v>6257</v>
       </c>
       <c r="B6257">
-        <v>46.65632321280885</v>
+        <v>46.65632321280884</v>
       </c>
     </row>
     <row r="6258" spans="1:2">
@@ -50495,7 +50495,7 @@
         <v>6269</v>
       </c>
       <c r="B6269">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6270" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -50519,7 +50519,7 @@
         <v>6272</v>
       </c>
       <c r="B6272">
-        <v>208.9757694726656</v>
+        <v>208.9757694726655</v>
       </c>
     </row>
     <row r="6273" spans="1:2">
@@ -50543,7 +50543,7 @@
         <v>6275</v>
       </c>
       <c r="B6275">
-        <v>56.7707908990892</v>
+        <v>56.77079089908919</v>
       </c>
     </row>
     <row r="6276" spans="1:2">
@@ -50551,7 +50551,7 @@
         <v>6276</v>
       </c>
       <c r="B6276">
-        <v>50.69718669387148</v>
+        <v>50.69718669387147</v>
       </c>
     </row>
     <row r="6277" spans="1:2">
@@ -50567,7 +50567,7 @@
         <v>6278</v>
       </c>
       <c r="B6278">
-        <v>40.56747931358074</v>
+        <v>40.56747931358073</v>
       </c>
     </row>
     <row r="6279" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>56.66880217763505</v>
+        <v>56.66880217763504</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>42.47068263864752</v>
+        <v>42.47068263864751</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -50919,7 +50919,7 @@
         <v>6322</v>
       </c>
       <c r="B6322">
-        <v>210.9534128415524</v>
+        <v>210.9534128415523</v>
       </c>
     </row>
     <row r="6323" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>85.25993349631992</v>
+        <v>85.2599334963199</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>811.8067770919265</v>
+        <v>811.8067770919264</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51095,7 +51095,7 @@
         <v>6344</v>
       </c>
       <c r="B6344">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="6345" spans="1:2">
@@ -51159,7 +51159,7 @@
         <v>6352</v>
       </c>
       <c r="B6352">
-        <v>274.5246241217394</v>
+        <v>274.5246241217393</v>
       </c>
     </row>
     <row r="6353" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>668.2019681478673</v>
+        <v>668.2019681478672</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51255,7 +51255,7 @@
         <v>6364</v>
       </c>
       <c r="B6364">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="6365" spans="1:2">
@@ -51471,7 +51471,7 @@
         <v>6391</v>
       </c>
       <c r="B6391">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6392" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51639,7 +51639,7 @@
         <v>6412</v>
       </c>
       <c r="B6412">
-        <v>681.9819925431005</v>
+        <v>681.9819925431004</v>
       </c>
     </row>
     <row r="6413" spans="1:2">
@@ -51679,7 +51679,7 @@
         <v>6417</v>
       </c>
       <c r="B6417">
-        <v>434.055162417039</v>
+        <v>434.0551624170389</v>
       </c>
     </row>
     <row r="6418" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>493.3946740786287</v>
+        <v>493.3946740786286</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>91.69518736324574</v>
+        <v>91.69518736324572</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>89.08421747981181</v>
+        <v>89.0842174798118</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -51991,7 +51991,7 @@
         <v>6456</v>
       </c>
       <c r="B6456">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="6457" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>125.0290873005872</v>
+        <v>125.0290873005871</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -52159,7 +52159,7 @@
         <v>6477</v>
       </c>
       <c r="B6477">
-        <v>215.5909689573295</v>
+        <v>215.5909689573294</v>
       </c>
     </row>
     <row r="6478" spans="1:2">
@@ -52199,7 +52199,7 @@
         <v>6482</v>
       </c>
       <c r="B6482">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="6483" spans="1:2">
@@ -52383,7 +52383,7 @@
         <v>6505</v>
       </c>
       <c r="B6505">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="6506" spans="1:2">
@@ -52415,7 +52415,7 @@
         <v>6509</v>
       </c>
       <c r="B6509">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="6510" spans="1:2">
@@ -52559,7 +52559,7 @@
         <v>6527</v>
       </c>
       <c r="B6527">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="6528" spans="1:2">
@@ -52623,7 +52623,7 @@
         <v>6535</v>
       </c>
       <c r="B6535">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="6536" spans="1:2">
@@ -52703,7 +52703,7 @@
         <v>6545</v>
       </c>
       <c r="B6545">
-        <v>277.4398017433038</v>
+        <v>277.4398017433037</v>
       </c>
     </row>
     <row r="6546" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52887,7 +52887,7 @@
         <v>6568</v>
       </c>
       <c r="B6568">
-        <v>208.7688613193707</v>
+        <v>208.7688613193706</v>
       </c>
     </row>
     <row r="6569" spans="1:2">
@@ -52919,7 +52919,7 @@
         <v>6572</v>
       </c>
       <c r="B6572">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6573" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>89.76912449716338</v>
+        <v>89.76912449716336</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53071,7 +53071,7 @@
         <v>6591</v>
       </c>
       <c r="B6591">
-        <v>46.43505457861954</v>
+        <v>46.43505457861953</v>
       </c>
     </row>
     <row r="6592" spans="1:2">
@@ -53167,7 +53167,7 @@
         <v>6603</v>
       </c>
       <c r="B6603">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6604" spans="1:2">
@@ -53255,7 +53255,7 @@
         <v>6614</v>
       </c>
       <c r="B6614">
-        <v>43.2684220058837</v>
+        <v>43.26842200588369</v>
       </c>
     </row>
     <row r="6615" spans="1:2">
@@ -53343,7 +53343,7 @@
         <v>6625</v>
       </c>
       <c r="B6625">
-        <v>279.8957370472859</v>
+        <v>279.8957370472858</v>
       </c>
     </row>
     <row r="6626" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>40.0173849740134</v>
+        <v>40.01738497401339</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>46.0092223594446</v>
+        <v>46.00922235944459</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53919,7 +53919,7 @@
         <v>6697</v>
       </c>
       <c r="B6697">
-        <v>867.4902744375821</v>
+        <v>867.490274437582</v>
       </c>
     </row>
     <row r="6698" spans="1:2">
@@ -54007,7 +54007,7 @@
         <v>6708</v>
       </c>
       <c r="B6708">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="6709" spans="1:2">
@@ -54191,7 +54191,7 @@
         <v>6731</v>
       </c>
       <c r="B6731">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="6732" spans="1:2">
@@ -54247,7 +54247,7 @@
         <v>6738</v>
       </c>
       <c r="B6738">
-        <v>697.5090720140018</v>
+        <v>697.5090720140017</v>
       </c>
     </row>
     <row r="6739" spans="1:2">
@@ -54343,7 +54343,7 @@
         <v>6750</v>
       </c>
       <c r="B6750">
-        <v>1999.116683889475</v>
+        <v>1999.116683889474</v>
       </c>
     </row>
     <row r="6751" spans="1:2">
@@ -54447,7 +54447,7 @@
         <v>6763</v>
       </c>
       <c r="B6763">
-        <v>671.1326785344808</v>
+        <v>671.1326785344806</v>
       </c>
     </row>
     <row r="6764" spans="1:2">
@@ -54487,7 +54487,7 @@
         <v>6768</v>
       </c>
       <c r="B6768">
-        <v>917.0914340610678</v>
+        <v>917.0914340610677</v>
       </c>
     </row>
     <row r="6769" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>591.8202407754426</v>
+        <v>591.8202407754425</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -54583,7 +54583,7 @@
         <v>6780</v>
       </c>
       <c r="B6780">
-        <v>180.9734178706514</v>
+        <v>180.9734178706513</v>
       </c>
     </row>
     <row r="6781" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>94.71469827457358</v>
+        <v>94.71469827457356</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54671,7 +54671,7 @@
         <v>6791</v>
       </c>
       <c r="B6791">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="6792" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>554.0985776676353</v>
+        <v>554.0985776676351</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -54783,7 +54783,7 @@
         <v>6805</v>
       </c>
       <c r="B6805">
-        <v>64.05858841748088</v>
+        <v>64.05858841748086</v>
       </c>
     </row>
     <row r="6806" spans="1:2">
@@ -54791,7 +54791,7 @@
         <v>6806</v>
       </c>
       <c r="B6806">
-        <v>56.40415902972386</v>
+        <v>56.40415902972385</v>
       </c>
     </row>
     <row r="6807" spans="1:2">
@@ -54887,7 +54887,7 @@
         <v>6818</v>
       </c>
       <c r="B6818">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="6819" spans="1:2">
@@ -55015,7 +55015,7 @@
         <v>6834</v>
       </c>
       <c r="B6834">
-        <v>109.399315737739</v>
+        <v>109.3993157377389</v>
       </c>
     </row>
     <row r="6835" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55135,7 +55135,7 @@
         <v>6849</v>
       </c>
       <c r="B6849">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="6850" spans="1:2">
@@ -55295,7 +55295,7 @@
         <v>6869</v>
       </c>
       <c r="B6869">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="6870" spans="1:2">
@@ -55359,7 +55359,7 @@
         <v>6877</v>
       </c>
       <c r="B6877">
-        <v>261.3364273819789</v>
+        <v>261.3364273819788</v>
       </c>
     </row>
     <row r="6878" spans="1:2">
@@ -55431,7 +55431,7 @@
         <v>6886</v>
       </c>
       <c r="B6886">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6887" spans="1:2">
@@ -55487,7 +55487,7 @@
         <v>6893</v>
       </c>
       <c r="B6893">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="6894" spans="1:2">
@@ -55639,7 +55639,7 @@
         <v>6912</v>
       </c>
       <c r="B6912">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="6913" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>700.4397824006153</v>
+        <v>700.4397824006152</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55655,7 +55655,7 @@
         <v>6914</v>
       </c>
       <c r="B6914">
-        <v>641.8255746683462</v>
+        <v>641.8255746683461</v>
       </c>
     </row>
     <row r="6915" spans="1:2">
@@ -55759,7 +55759,7 @@
         <v>6927</v>
       </c>
       <c r="B6927">
-        <v>78.02459569384862</v>
+        <v>78.02459569384861</v>
       </c>
     </row>
     <row r="6928" spans="1:2">
@@ -55799,7 +55799,7 @@
         <v>6932</v>
       </c>
       <c r="B6932">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="6933" spans="1:2">
@@ -55823,7 +55823,7 @@
         <v>6935</v>
       </c>
       <c r="B6935">
-        <v>726.8161758801364</v>
+        <v>726.8161758801363</v>
       </c>
     </row>
     <row r="6936" spans="1:2">
@@ -55847,7 +55847,7 @@
         <v>6938</v>
       </c>
       <c r="B6938">
-        <v>1062.246823256477</v>
+        <v>1062.246823256476</v>
       </c>
     </row>
     <row r="6939" spans="1:2">
@@ -55911,7 +55911,7 @@
         <v>6946</v>
       </c>
       <c r="B6946">
-        <v>393.0229339810595</v>
+        <v>393.0229339810594</v>
       </c>
     </row>
     <row r="6947" spans="1:2">
@@ -55967,7 +55967,7 @@
         <v>6953</v>
       </c>
       <c r="B6953">
-        <v>289.9811907007388</v>
+        <v>289.9811907007387</v>
       </c>
     </row>
     <row r="6954" spans="1:2">
@@ -55991,7 +55991,7 @@
         <v>6956</v>
       </c>
       <c r="B6956">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="6957" spans="1:2">
@@ -56047,7 +56047,7 @@
         <v>6963</v>
       </c>
       <c r="B6963">
-        <v>947.4474391745714</v>
+        <v>947.4474391745713</v>
       </c>
     </row>
     <row r="6964" spans="1:2">
@@ -56175,7 +56175,7 @@
         <v>6979</v>
       </c>
       <c r="B6979">
-        <v>814.7374874785399</v>
+        <v>814.7374874785398</v>
       </c>
     </row>
     <row r="6980" spans="1:2">
@@ -56215,7 +56215,7 @@
         <v>6984</v>
       </c>
       <c r="B6984">
-        <v>1102.336538162832</v>
+        <v>1102.336538162831</v>
       </c>
     </row>
     <row r="6985" spans="1:2">
@@ -56279,7 +56279,7 @@
         <v>6992</v>
       </c>
       <c r="B6992">
-        <v>735.2373377192392</v>
+        <v>735.2373377192391</v>
       </c>
     </row>
     <row r="6993" spans="1:2">
@@ -56391,7 +56391,7 @@
         <v>7006</v>
       </c>
       <c r="B7006">
-        <v>554.4558462103864</v>
+        <v>554.4558462103863</v>
       </c>
     </row>
     <row r="7007" spans="1:2">
@@ -56399,7 +56399,7 @@
         <v>7007</v>
       </c>
       <c r="B7007">
-        <v>588.450961302314</v>
+        <v>588.4509613023139</v>
       </c>
     </row>
     <row r="7008" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>926.1044821698512</v>
+        <v>926.1044821698511</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56423,7 +56423,7 @@
         <v>7010</v>
       </c>
       <c r="B7010">
-        <v>785.4303836124054</v>
+        <v>785.4303836124053</v>
       </c>
     </row>
     <row r="7011" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>929.0351925564646</v>
+        <v>929.0351925564644</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56503,7 +56503,7 @@
         <v>7020</v>
       </c>
       <c r="B7020">
-        <v>292.5824892398969</v>
+        <v>292.5824892398968</v>
       </c>
     </row>
     <row r="7021" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56591,7 +56591,7 @@
         <v>7031</v>
       </c>
       <c r="B7031">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="7032" spans="1:2">
@@ -56607,7 +56607,7 @@
         <v>7033</v>
       </c>
       <c r="B7033">
-        <v>723.8854654935229</v>
+        <v>723.8854654935228</v>
       </c>
     </row>
     <row r="7034" spans="1:2">
@@ -56631,7 +56631,7 @@
         <v>7036</v>
       </c>
       <c r="B7036">
-        <v>723.8854654935229</v>
+        <v>723.8854654935228</v>
       </c>
     </row>
     <row r="7037" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>176.552441252445</v>
+        <v>176.5524412524449</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56815,7 +56815,7 @@
         <v>7059</v>
       </c>
       <c r="B7059">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="7060" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>83.78226931938941</v>
+        <v>83.7822693193894</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>71.04628119228333</v>
+        <v>71.04628119228332</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56927,7 +56927,7 @@
         <v>7073</v>
       </c>
       <c r="B7073">
-        <v>51.76689598498539</v>
+        <v>51.76689598498538</v>
       </c>
     </row>
     <row r="7074" spans="1:2">
@@ -57031,7 +57031,7 @@
         <v>7086</v>
       </c>
       <c r="B7086">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="7087" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57071,7 +57071,7 @@
         <v>7091</v>
       </c>
       <c r="B7091">
-        <v>76.70518987779525</v>
+        <v>76.70518987779523</v>
       </c>
     </row>
     <row r="7092" spans="1:2">
@@ -57207,7 +57207,7 @@
         <v>7108</v>
       </c>
       <c r="B7108">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="7109" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>58.59515811475608</v>
+        <v>58.59515811475607</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57375,7 +57375,7 @@
         <v>7129</v>
       </c>
       <c r="B7129">
-        <v>185.105133373699</v>
+        <v>185.1051333736989</v>
       </c>
     </row>
     <row r="7130" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>60.1818447180686</v>
+        <v>60.18184471806859</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>56.94663352228601</v>
+        <v>56.946633522286</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57591,7 +57591,7 @@
         <v>7156</v>
       </c>
       <c r="B7156">
-        <v>641.8255746683462</v>
+        <v>641.8255746683461</v>
       </c>
     </row>
     <row r="7157" spans="1:2">
@@ -57615,7 +57615,7 @@
         <v>7159</v>
       </c>
       <c r="B7159">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="7160" spans="1:2">
@@ -57671,7 +57671,7 @@
         <v>7166</v>
       </c>
       <c r="B7166">
-        <v>213.5491430309759</v>
+        <v>213.5491430309758</v>
       </c>
     </row>
     <row r="7167" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>893.8666679171032</v>
+        <v>893.8666679171031</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>809.7037491405692</v>
+        <v>809.7037491405691</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>756.1232797462709</v>
+        <v>756.1232797462708</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
@@ -57895,7 +57895,7 @@
         <v>7194</v>
       </c>
       <c r="B7194">
-        <v>896.7973783037166</v>
+        <v>896.7973783037165</v>
       </c>
     </row>
     <row r="7195" spans="1:2">
@@ -58031,7 +58031,7 @@
         <v>7211</v>
       </c>
       <c r="B7211">
-        <v>808.8760667053131</v>
+        <v>808.876066705313</v>
       </c>
     </row>
     <row r="7212" spans="1:2">
@@ -58239,7 +58239,7 @@
         <v>7237</v>
       </c>
       <c r="B7237">
-        <v>408.8848353907898</v>
+        <v>408.8848353907897</v>
       </c>
     </row>
     <row r="7238" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>285.7054893963968</v>
+        <v>285.7054893963967</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58575,7 +58575,7 @@
         <v>7279</v>
       </c>
       <c r="B7279">
-        <v>821.6982763319933</v>
+        <v>821.6982763319932</v>
       </c>
     </row>
     <row r="7280" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>594.9394251470192</v>
+        <v>594.9394251470191</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58599,7 +58599,7 @@
         <v>7282</v>
       </c>
       <c r="B7282">
-        <v>510.3318384756555</v>
+        <v>510.3318384756554</v>
       </c>
     </row>
     <row r="7283" spans="1:2">
@@ -58695,7 +58695,7 @@
         <v>7294</v>
       </c>
       <c r="B7294">
-        <v>644.3192164921625</v>
+        <v>644.3192164921624</v>
       </c>
     </row>
     <row r="7295" spans="1:2">
@@ -58719,7 +58719,7 @@
         <v>7297</v>
       </c>
       <c r="B7297">
-        <v>1005.317041318914</v>
+        <v>1005.317041318913</v>
       </c>
     </row>
     <row r="7298" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>561.3560924486731</v>
+        <v>561.3560924486729</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59063,7 +59063,7 @@
         <v>7340</v>
       </c>
       <c r="B7340">
-        <v>668.7323094994289</v>
+        <v>668.7323094994288</v>
       </c>
     </row>
     <row r="7341" spans="1:2">
@@ -59407,7 +59407,7 @@
         <v>7383</v>
       </c>
       <c r="B7383">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="7384" spans="1:2">
@@ -59455,7 +59455,7 @@
         <v>7389</v>
       </c>
       <c r="B7389">
-        <v>612.5184708022117</v>
+        <v>612.5184708022116</v>
       </c>
     </row>
     <row r="7390" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>707.2783020167391</v>
+        <v>707.278302016739</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59503,7 +59503,7 @@
         <v>7395</v>
       </c>
       <c r="B7395">
-        <v>818.5348089264751</v>
+        <v>818.5348089264749</v>
       </c>
     </row>
     <row r="7396" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>720.7916903809983</v>
+        <v>720.7916903809981</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59647,7 +59647,7 @@
         <v>7413</v>
       </c>
       <c r="B7413">
-        <v>894.7183030483492</v>
+        <v>894.7183030483491</v>
       </c>
     </row>
     <row r="7414" spans="1:2">
@@ -59695,7 +59695,7 @@
         <v>7419</v>
       </c>
       <c r="B7419">
-        <v>1835.555788709849</v>
+        <v>1835.555788709848</v>
       </c>
     </row>
     <row r="7420" spans="1:2">
@@ -59719,7 +59719,7 @@
         <v>7422</v>
       </c>
       <c r="B7422">
-        <v>2005.785808445253</v>
+        <v>2005.785808445252</v>
       </c>
     </row>
     <row r="7423" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>1313.385257706157</v>
+        <v>1313.385257706156</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -59943,7 +59943,7 @@
         <v>7450</v>
       </c>
       <c r="B7450">
-        <v>684.1909861899065</v>
+        <v>684.1909861899064</v>
       </c>
     </row>
     <row r="7451" spans="1:2">
@@ -60055,7 +60055,7 @@
         <v>7464</v>
       </c>
       <c r="B7464">
-        <v>862.4587136174287</v>
+        <v>862.4587136174285</v>
       </c>
     </row>
     <row r="7465" spans="1:2">
@@ -60071,7 +60071,7 @@
         <v>7466</v>
       </c>
       <c r="B7466">
-        <v>831.089767073</v>
+        <v>831.0897670729998</v>
       </c>
     </row>
     <row r="7467" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>570.2291698293917</v>
+        <v>570.2291698293916</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60391,7 +60391,7 @@
         <v>7506</v>
       </c>
       <c r="B7506">
-        <v>348.7852340260166</v>
+        <v>348.7852340260165</v>
       </c>
     </row>
     <row r="7507" spans="1:2">
@@ -60447,7 +60447,7 @@
         <v>7513</v>
       </c>
       <c r="B7513">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="7514" spans="1:2">
@@ -60455,7 +60455,7 @@
         <v>7514</v>
       </c>
       <c r="B7514">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="7515" spans="1:2">
@@ -60479,7 +60479,7 @@
         <v>7517</v>
       </c>
       <c r="B7517">
-        <v>697.5090720140018</v>
+        <v>697.5090720140017</v>
       </c>
     </row>
     <row r="7518" spans="1:2">
@@ -60495,7 +60495,7 @@
         <v>7519</v>
       </c>
       <c r="B7519">
-        <v>700.4397824006153</v>
+        <v>700.4397824006152</v>
       </c>
     </row>
     <row r="7520" spans="1:2">
@@ -60599,7 +60599,7 @@
         <v>7532</v>
       </c>
       <c r="B7532">
-        <v>700.4397824006153</v>
+        <v>700.4397824006152</v>
       </c>
     </row>
     <row r="7533" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>841.113880958061</v>
+        <v>841.1138809580609</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60631,7 +60631,7 @@
         <v>7536</v>
       </c>
       <c r="B7536">
-        <v>870.4209848241956</v>
+        <v>870.4209848241954</v>
       </c>
     </row>
     <row r="7537" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>896.7973783037166</v>
+        <v>896.7973783037165</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -60687,7 +60687,7 @@
         <v>7543</v>
       </c>
       <c r="B7543">
-        <v>785.4303836124054</v>
+        <v>785.4303836124053</v>
       </c>
     </row>
     <row r="7544" spans="1:2">
@@ -60767,7 +60767,7 @@
         <v>7553</v>
       </c>
       <c r="B7553">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="7554" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>726.8161758801364</v>
+        <v>726.8161758801363</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -60879,7 +60879,7 @@
         <v>7567</v>
       </c>
       <c r="B7567">
-        <v>1342.265357068962</v>
+        <v>1342.265357068961</v>
       </c>
     </row>
     <row r="7568" spans="1:2">
@@ -60903,7 +60903,7 @@
         <v>7570</v>
       </c>
       <c r="B7570">
-        <v>811.8067770919265</v>
+        <v>811.8067770919264</v>
       </c>
     </row>
     <row r="7571" spans="1:2">
@@ -60967,7 +60967,7 @@
         <v>7578</v>
       </c>
       <c r="B7578">
-        <v>896.7973783037166</v>
+        <v>896.7973783037165</v>
       </c>
     </row>
     <row r="7579" spans="1:2">
@@ -61063,7 +61063,7 @@
         <v>7590</v>
       </c>
       <c r="B7590">
-        <v>1930.164102197389</v>
+        <v>1930.164102197388</v>
       </c>
     </row>
     <row r="7591" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>1980.08406449673</v>
+        <v>1980.084064496729</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61087,7 +61087,7 @@
         <v>7593</v>
       </c>
       <c r="B7593">
-        <v>927.1025942062201</v>
+        <v>927.10259420622</v>
       </c>
     </row>
     <row r="7594" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>505.9834555537256</v>
+        <v>505.9834555537255</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>541.7489072846324</v>
+        <v>541.7489072846323</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61167,7 +61167,7 @@
         <v>7603</v>
       </c>
       <c r="B7603">
-        <v>578.1738567738389</v>
+        <v>578.1738567738388</v>
       </c>
     </row>
     <row r="7604" spans="1:2">
@@ -61191,7 +61191,7 @@
         <v>7606</v>
       </c>
       <c r="B7606">
-        <v>728.0595004545532</v>
+        <v>728.0595004545531</v>
       </c>
     </row>
     <row r="7607" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>755.1446569339729</v>
+        <v>755.1446569339728</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61215,7 +61215,7 @@
         <v>7609</v>
       </c>
       <c r="B7609">
-        <v>814.8192542983264</v>
+        <v>814.8192542983263</v>
       </c>
     </row>
     <row r="7610" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>838.6512050201898</v>
+        <v>838.6512050201896</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61239,7 +61239,7 @@
         <v>7612</v>
       </c>
       <c r="B7612">
-        <v>844.8141958921992</v>
+        <v>844.8141958921991</v>
       </c>
     </row>
     <row r="7613" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>807.9907870188288</v>
+        <v>807.9907870188287</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>715.0313791161095</v>
+        <v>715.0313791161094</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61287,7 +61287,7 @@
         <v>7618</v>
       </c>
       <c r="B7618">
-        <v>771.9733821159847</v>
+        <v>771.9733821159846</v>
       </c>
     </row>
     <row r="7619" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>686.0931051521303</v>
+        <v>686.0931051521302</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>511.2301598233603</v>
+        <v>511.2301598233602</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>436.8526280559251</v>
+        <v>436.852628055925</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>1259.143083728638</v>
+        <v>1259.143083728637</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>734.5502033619938</v>
+        <v>734.5502033619937</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -61735,7 +61735,7 @@
         <v>7674</v>
       </c>
       <c r="B7674">
-        <v>835.396768364271</v>
+        <v>835.3967683642709</v>
       </c>
     </row>
     <row r="7675" spans="1:2">
@@ -61751,7 +61751,7 @@
         <v>7676</v>
       </c>
       <c r="B7676">
-        <v>780.0269742583985</v>
+        <v>780.0269742583984</v>
       </c>
     </row>
     <row r="7677" spans="1:2">
@@ -61767,7 +61767,7 @@
         <v>7678</v>
       </c>
       <c r="B7678">
-        <v>925.5609819286537</v>
+        <v>925.5609819286536</v>
       </c>
     </row>
     <row r="7679" spans="1:2">
@@ -61863,7 +61863,7 @@
         <v>7690</v>
       </c>
       <c r="B7690">
-        <v>785.4303836124054</v>
+        <v>785.4303836124053</v>
       </c>
     </row>
     <row r="7691" spans="1:2">
@@ -61871,7 +61871,7 @@
         <v>7691</v>
       </c>
       <c r="B7691">
-        <v>697.5090720140018</v>
+        <v>697.5090720140017</v>
       </c>
     </row>
     <row r="7692" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>583.2113669360772</v>
+        <v>583.2113669360771</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>1963.575959031014</v>
+        <v>1963.575959031013</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>1931.338144778266</v>
+        <v>1931.338144778265</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62167,7 +62167,7 @@
         <v>7728</v>
       </c>
       <c r="B7728">
-        <v>1910.823172071972</v>
+        <v>1910.823172071971</v>
       </c>
     </row>
     <row r="7729" spans="1:2">
@@ -62191,7 +62191,7 @@
         <v>7731</v>
       </c>
       <c r="B7731">
-        <v>2066.681281142462</v>
+        <v>2066.681281142461</v>
       </c>
     </row>
     <row r="7732" spans="1:2">
@@ -62199,7 +62199,7 @@
         <v>7732</v>
       </c>
       <c r="B7732">
-        <v>2051.945669318569</v>
+        <v>2051.945669318568</v>
       </c>
     </row>
     <row r="7733" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>2020.926444444575</v>
+        <v>2020.926444444574</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>800.2148796855465</v>
+        <v>800.2148796855464</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62519,7 +62519,7 @@
         <v>7772</v>
       </c>
       <c r="B7772">
-        <v>1829.892777029796</v>
+        <v>1829.892777029795</v>
       </c>
     </row>
     <row r="7773" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>2021.690480642365</v>
+        <v>2021.690480642364</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>2003.952649098426</v>
+        <v>2003.952649098425</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62847,7 +62847,7 @@
         <v>7813</v>
       </c>
       <c r="B7813">
-        <v>1963.575959031014</v>
+        <v>1963.575959031013</v>
       </c>
     </row>
     <row r="7814" spans="1:2">
@@ -63031,7 +63031,7 @@
         <v>7836</v>
       </c>
       <c r="B7836">
-        <v>1979.311529238819</v>
+        <v>1979.311529238818</v>
       </c>
     </row>
     <row r="7837" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>1981.007531339552</v>
+        <v>1981.007531339551</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>1943.06098632472</v>
+        <v>1943.060986324719</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63255,7 +63255,7 @@
         <v>7864</v>
       </c>
       <c r="B7864">
-        <v>1910.823172071972</v>
+        <v>1910.823172071971</v>
       </c>
     </row>
     <row r="7865" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>1931.338144778266</v>
+        <v>1931.338144778265</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63399,7 +63399,7 @@
         <v>7882</v>
       </c>
       <c r="B7882">
-        <v>1963.575959031014</v>
+        <v>1963.575959031013</v>
       </c>
     </row>
     <row r="7883" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>1943.06098632472</v>
+        <v>1943.060986324719</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63423,7 +63423,7 @@
         <v>7885</v>
       </c>
       <c r="B7885">
-        <v>1931.338144778266</v>
+        <v>1931.338144778265</v>
       </c>
     </row>
     <row r="7886" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>1943.06098632472</v>
+        <v>1943.060986324719</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>936.6573841299689</v>
+        <v>936.6573841299688</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>609.4982858274949</v>
+        <v>609.4982858274948</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>575.7990728404621</v>
+        <v>575.799072840462</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63735,7 +63735,7 @@
         <v>7924</v>
       </c>
       <c r="B7924">
-        <v>1053.53059749565</v>
+        <v>1053.530597495649</v>
       </c>
     </row>
     <row r="7925" spans="1:2">
@@ -63927,7 +63927,7 @@
         <v>7948</v>
       </c>
       <c r="B7948">
-        <v>1890.896392940271</v>
+        <v>1890.89639294027</v>
       </c>
     </row>
     <row r="7949" spans="1:2">
@@ -64055,7 +64055,7 @@
         <v>7964</v>
       </c>
       <c r="B7964">
-        <v>829.444290419332</v>
+        <v>829.4442904193319</v>
       </c>
     </row>
     <row r="7965" spans="1:2">
@@ -64239,7 +64239,7 @@
         <v>7987</v>
       </c>
       <c r="B7987">
-        <v>1056.080462067523</v>
+        <v>1056.080462067522</v>
       </c>
     </row>
     <row r="7988" spans="1:2">
@@ -64335,7 +64335,7 @@
         <v>7999</v>
       </c>
       <c r="B7999">
-        <v>1748.028657658445</v>
+        <v>1748.028657658444</v>
       </c>
     </row>
     <row r="8000" spans="1:2">
@@ -64383,7 +64383,7 @@
         <v>8005</v>
       </c>
       <c r="B8005">
-        <v>912.1252573896398</v>
+        <v>912.1252573896397</v>
       </c>
     </row>
     <row r="8006" spans="1:2">
@@ -64487,7 +64487,7 @@
         <v>8018</v>
       </c>
       <c r="B8018">
-        <v>899.7280886903301</v>
+        <v>899.72808869033</v>
       </c>
     </row>
     <row r="8019" spans="1:2">
@@ -64495,7 +64495,7 @@
         <v>8019</v>
       </c>
       <c r="B8019">
-        <v>867.4902744375821</v>
+        <v>867.490274437582</v>
       </c>
     </row>
     <row r="8020" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>811.8067770919265</v>
+        <v>811.8067770919264</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64615,7 +64615,7 @@
         <v>8034</v>
       </c>
       <c r="B8034">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="8035" spans="1:2">
@@ -64679,7 +64679,7 @@
         <v>8042</v>
       </c>
       <c r="B8042">
-        <v>1963.575959031014</v>
+        <v>1963.575959031013</v>
       </c>
     </row>
     <row r="8043" spans="1:2">
@@ -65079,7 +65079,7 @@
         <v>8092</v>
       </c>
       <c r="B8092">
-        <v>568.2893619315961</v>
+        <v>568.289361931596</v>
       </c>
     </row>
     <row r="8093" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>364.333456813931</v>
+        <v>364.3334568139309</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -65287,7 +65287,7 @@
         <v>8118</v>
       </c>
       <c r="B8118">
-        <v>434.294818328194</v>
+        <v>434.2948183281939</v>
       </c>
     </row>
     <row r="8119" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>419.2821940001325</v>
+        <v>419.2821940001324</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65367,7 +65367,7 @@
         <v>8128</v>
       </c>
       <c r="B8128">
-        <v>95.70498531421026</v>
+        <v>95.70498531421023</v>
       </c>
     </row>
     <row r="8129" spans="1:2">
@@ -65383,7 +65383,7 @@
         <v>8130</v>
       </c>
       <c r="B8130">
-        <v>176.9982023022489</v>
+        <v>176.9982023022488</v>
       </c>
     </row>
     <row r="8131" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>477.9018496299393</v>
+        <v>477.9018496299392</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65639,7 +65639,7 @@
         <v>8162</v>
       </c>
       <c r="B8162">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="8163" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>165.8940337184092</v>
+        <v>165.8940337184091</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65911,7 +65911,7 @@
         <v>8196</v>
       </c>
       <c r="B8196">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="8197" spans="1:2">
@@ -65943,7 +65943,7 @@
         <v>8200</v>
       </c>
       <c r="B8200">
-        <v>700.4397824006153</v>
+        <v>700.4397824006152</v>
       </c>
     </row>
     <row r="8201" spans="1:2">
@@ -65967,7 +65967,7 @@
         <v>8203</v>
       </c>
       <c r="B8203">
-        <v>723.8854654935229</v>
+        <v>723.8854654935228</v>
       </c>
     </row>
     <row r="8204" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>726.8161758801364</v>
+        <v>726.8161758801363</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>785.4303836124054</v>
+        <v>785.4303836124053</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66015,7 +66015,7 @@
         <v>8209</v>
       </c>
       <c r="B8209">
-        <v>893.8666679171032</v>
+        <v>893.8666679171031</v>
       </c>
     </row>
     <row r="8210" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>984.7186899021202</v>
+        <v>984.71868990212</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66095,7 +66095,7 @@
         <v>8219</v>
       </c>
       <c r="B8219">
-        <v>814.7374874785399</v>
+        <v>814.7374874785398</v>
       </c>
     </row>
     <row r="8220" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>2019.177689556883</v>
+        <v>2019.177689556882</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66263,7 +66263,7 @@
         <v>8240</v>
       </c>
       <c r="B8240">
-        <v>1982.418082248629</v>
+        <v>1982.418082248628</v>
       </c>
     </row>
     <row r="8241" spans="1:2">
@@ -66287,7 +66287,7 @@
         <v>8243</v>
       </c>
       <c r="B8243">
-        <v>888.6670015491736</v>
+        <v>888.6670015491735</v>
       </c>
     </row>
     <row r="8244" spans="1:2">
@@ -66295,7 +66295,7 @@
         <v>8244</v>
       </c>
       <c r="B8244">
-        <v>828.1749411366819</v>
+        <v>828.1749411366818</v>
       </c>
     </row>
     <row r="8245" spans="1:2">
@@ -66327,7 +66327,7 @@
         <v>8248</v>
       </c>
       <c r="B8248">
-        <v>592.7806052620319</v>
+        <v>592.7806052620318</v>
       </c>
     </row>
     <row r="8249" spans="1:2">
@@ -66551,7 +66551,7 @@
         <v>8276</v>
       </c>
       <c r="B8276">
-        <v>1945.237331857819</v>
+        <v>1945.237331857818</v>
       </c>
     </row>
     <row r="8277" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>1830.010298516299</v>
+        <v>1830.010298516298</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>2001.243207346002</v>
+        <v>2001.243207346001</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66703,7 +66703,7 @@
         <v>8295</v>
       </c>
       <c r="B8295">
-        <v>885.1678505759726</v>
+        <v>885.1678505759725</v>
       </c>
     </row>
     <row r="8296" spans="1:2">
@@ -66719,7 +66719,7 @@
         <v>8297</v>
       </c>
       <c r="B8297">
-        <v>892.6635526891906</v>
+        <v>892.6635526891905</v>
       </c>
     </row>
     <row r="8298" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>923.9052770957364</v>
+        <v>923.9052770957363</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>845.1559753374861</v>
+        <v>845.155975337486</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>1957.714538257787</v>
+        <v>1957.714538257786</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>1963.575959031014</v>
+        <v>1963.575959031013</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67463,7 +67463,7 @@
         <v>8390</v>
       </c>
       <c r="B8390">
-        <v>723.8854654935229</v>
+        <v>723.8854654935228</v>
       </c>
     </row>
     <row r="8391" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>1421.394537507525</v>
+        <v>1421.394537507524</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>777.415037240537</v>
+        <v>777.4150372405369</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>945.8024607416691</v>
+        <v>945.8024607416688</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>1969.60179265693</v>
+        <v>1969.601792656929</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>1990.54025301409</v>
+        <v>1990.540253014089</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -68007,7 +68007,7 @@
         <v>8458</v>
       </c>
       <c r="B8458">
-        <v>916.6611764692092</v>
+        <v>916.6611764692091</v>
       </c>
     </row>
     <row r="8459" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>531.7307134345523</v>
+        <v>531.7307134345522</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68079,7 +68079,7 @@
         <v>8467</v>
       </c>
       <c r="B8467">
-        <v>604.3581714946214</v>
+        <v>604.3581714946213</v>
       </c>
     </row>
     <row r="8468" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>721.633536939553</v>
+        <v>721.6335369395529</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>780.1347657864181</v>
+        <v>780.134765786418</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68143,7 +68143,7 @@
         <v>8475</v>
       </c>
       <c r="B8475">
-        <v>870.9066035352574</v>
+        <v>870.9066035352573</v>
       </c>
     </row>
     <row r="8476" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>953.5228897273327</v>
+        <v>953.5228897273325</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68287,7 +68287,7 @@
         <v>8493</v>
       </c>
       <c r="B8493">
-        <v>658.5017856818387</v>
+        <v>658.5017856818386</v>
       </c>
     </row>
     <row r="8494" spans="1:2">
@@ -68295,7 +68295,7 @@
         <v>8494</v>
       </c>
       <c r="B8494">
-        <v>688.2160824490893</v>
+        <v>688.2160824490892</v>
       </c>
     </row>
     <row r="8495" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>923.3240293047594</v>
+        <v>923.3240293047593</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68439,7 +68439,7 @@
         <v>8512</v>
       </c>
       <c r="B8512">
-        <v>497.078404122689</v>
+        <v>497.0784041226889</v>
       </c>
     </row>
     <row r="8513" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>545.872094420455</v>
+        <v>545.8720944204549</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>546.1474053541735</v>
+        <v>546.1474053541734</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>671.1326785344808</v>
+        <v>671.1326785344806</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -68551,7 +68551,7 @@
         <v>8526</v>
       </c>
       <c r="B8526">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="8527" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>1957.714538257787</v>
+        <v>1957.714538257786</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68831,7 +68831,7 @@
         <v>8561</v>
       </c>
       <c r="B8561">
-        <v>2016.328745990056</v>
+        <v>2016.328745990055</v>
       </c>
     </row>
     <row r="8562" spans="1:2">
@@ -69199,7 +69199,7 @@
         <v>8607</v>
       </c>
       <c r="B8607">
-        <v>1957.714538257787</v>
+        <v>1957.714538257786</v>
       </c>
     </row>
     <row r="8608" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>2194.255397342784</v>
+        <v>2194.255397342783</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>1963.575959031014</v>
+        <v>1963.575959031013</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>1943.06098632472</v>
+        <v>1943.060986324719</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>1910.823172071972</v>
+        <v>1910.823172071971</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>1943.06098632472</v>
+        <v>1943.060986324719</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>2016.328745990056</v>
+        <v>2016.328745990055</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
